--- a/Grid_5x5/Solutions/Solution_NDP_S012/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
+++ b/Grid_5x5/Solutions/Solution_NDP_S012/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
@@ -2621,7 +2621,7 @@
         <v>166</v>
       </c>
       <c r="C39" s="38">
-        <v>19.454307242348442</v>
+        <v>19.454307242348438</v>
       </c>
       <c r="D39" s="22" t="s">
         <v>129</v>
@@ -2641,7 +2641,7 @@
         <v>200</v>
       </c>
       <c r="C40" s="39">
-        <v>20.315596050941629</v>
+        <v>20.315596050941618</v>
       </c>
       <c r="D40" s="22" t="s">
         <v>129</v>
@@ -2661,7 +2661,7 @@
         <v>201</v>
       </c>
       <c r="C41" s="39">
-        <v>0.21280331923191098</v>
+        <v>0.21280331923191101</v>
       </c>
       <c r="D41" s="22" t="s">
         <v>42</v>
@@ -2682,7 +2682,7 @@
         <v>202</v>
       </c>
       <c r="C42" s="39">
-        <v>0.97244107142857128</v>
+        <v>0.97244107142857106</v>
       </c>
       <c r="D42" s="22" t="s">
         <v>42</v>
@@ -2702,7 +2702,7 @@
         <v>204</v>
       </c>
       <c r="C43" s="40">
-        <v>1.8154285714285714</v>
+        <v>1.8154285714285716</v>
       </c>
       <c r="D43" s="67" t="s">
         <v>42</v>
@@ -7887,16 +7887,16 @@
         <v>70</v>
       </c>
       <c r="K13" s="72">
-        <v>72.669000000000011</v>
+        <v>72.668999999999997</v>
       </c>
       <c r="L13" s="72">
-        <v>30.967000000000013</v>
+        <v>30.966999999999999</v>
       </c>
       <c r="M13" s="72">
         <v>3.66</v>
       </c>
       <c r="N13" s="72">
-        <v>103.63600000000002</v>
+        <v>103.636</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -7934,13 +7934,13 @@
         <v>23.005000000000003</v>
       </c>
       <c r="L14" s="72">
-        <v>29.898999999999994</v>
+        <v>29.898999999999987</v>
       </c>
       <c r="M14" s="72">
-        <v>73.737000000000009</v>
+        <v>73.736999999999995</v>
       </c>
       <c r="N14" s="72">
-        <v>52.903999999999996</v>
+        <v>52.903999999999989</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -7975,16 +7975,16 @@
         <v>70</v>
       </c>
       <c r="K15" s="72">
-        <v>29.119999999999997</v>
+        <v>29.12</v>
       </c>
       <c r="L15" s="72">
-        <v>35.33400000000001</v>
+        <v>35.333999999999989</v>
       </c>
       <c r="M15" s="72">
         <v>17.57</v>
       </c>
       <c r="N15" s="72">
-        <v>64.454000000000008</v>
+        <v>64.453999999999994</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -8022,13 +8022,13 @@
         <v>4.5169999999999995</v>
       </c>
       <c r="L16" s="72">
-        <v>19.114999999999998</v>
+        <v>19.115000000000002</v>
       </c>
       <c r="M16" s="72">
-        <v>45.339000000000006</v>
+        <v>45.338999999999999</v>
       </c>
       <c r="N16" s="72">
-        <v>23.631999999999998</v>
+        <v>23.632000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -8066,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="72">
-        <v>23.631999999999998</v>
+        <v>23.632000000000001</v>
       </c>
       <c r="N17" s="72">
         <v>0</v>
@@ -9399,10 +9399,10 @@
         <v>70</v>
       </c>
       <c r="K49" s="72">
-        <v>93.299000000000007</v>
+        <v>93.298999999999992</v>
       </c>
       <c r="L49" s="72">
-        <v>39.075000000000017</v>
+        <v>39.075000000000031</v>
       </c>
       <c r="M49" s="72">
         <v>5.7409999999999997</v>
@@ -9446,13 +9446,13 @@
         <v>43.381</v>
       </c>
       <c r="L50" s="72">
-        <v>88.927999999999969</v>
+        <v>88.928000000000026</v>
       </c>
       <c r="M50" s="72">
         <v>43.446000000000005</v>
       </c>
       <c r="N50" s="72">
-        <v>132.30899999999997</v>
+        <v>132.30900000000003</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -9487,16 +9487,16 @@
         <v>70</v>
       </c>
       <c r="K51" s="72">
-        <v>41.037000000000006</v>
+        <v>41.036999999999999</v>
       </c>
       <c r="L51" s="72">
-        <v>49.640000000000015</v>
+        <v>49.640000000000008</v>
       </c>
       <c r="M51" s="72">
-        <v>82.669000000000011</v>
+        <v>82.668999999999997</v>
       </c>
       <c r="N51" s="72">
-        <v>90.677000000000021</v>
+        <v>90.677000000000007</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -9540,7 +9540,7 @@
         <v>63.533000000000001</v>
       </c>
       <c r="N52" s="72">
-        <v>30.537999999999997</v>
+        <v>30.538</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -9578,7 +9578,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="72">
-        <v>30.537999999999997</v>
+        <v>30.538</v>
       </c>
       <c r="N53" s="72">
         <v>0</v>
@@ -10958,13 +10958,13 @@
         <v>22.942</v>
       </c>
       <c r="L86" s="72">
-        <v>32.317</v>
+        <v>32.316999999999986</v>
       </c>
       <c r="M86" s="72">
         <v>7.73</v>
       </c>
       <c r="N86" s="72">
-        <v>55.259</v>
+        <v>55.258999999999986</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -11002,7 +11002,7 @@
         <v>0</v>
       </c>
       <c r="M87" s="72">
-        <v>55.259</v>
+        <v>55.258999999999986</v>
       </c>
       <c r="N87" s="72">
         <v>0</v>
@@ -12071,7 +12071,7 @@
         <v>70</v>
       </c>
       <c r="K113" s="72">
-        <v>29.682000000000002</v>
+        <v>29.681999999999999</v>
       </c>
       <c r="L113" s="72">
         <v>0</v>
@@ -12080,7 +12080,7 @@
         <v>0</v>
       </c>
       <c r="N113" s="72">
-        <v>29.682000000000002</v>
+        <v>29.681999999999999</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
@@ -12162,13 +12162,13 @@
         <v>2.5939999999999999</v>
       </c>
       <c r="L115" s="72">
-        <v>14.321999999999997</v>
+        <v>14.322000000000001</v>
       </c>
       <c r="M115" s="72">
         <v>6.51</v>
       </c>
       <c r="N115" s="72">
-        <v>16.915999999999997</v>
+        <v>16.916</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
@@ -12206,13 +12206,13 @@
         <v>2.282</v>
       </c>
       <c r="L116" s="72">
-        <v>11.233000000000001</v>
+        <v>11.232999999999999</v>
       </c>
       <c r="M116" s="72">
         <v>5.6829999999999998</v>
       </c>
       <c r="N116" s="72">
-        <v>13.515000000000001</v>
+        <v>13.514999999999999</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
@@ -12250,7 +12250,7 @@
         <v>0</v>
       </c>
       <c r="M117" s="72">
-        <v>13.515000000000001</v>
+        <v>13.514999999999999</v>
       </c>
       <c r="N117" s="72">
         <v>0</v>
@@ -13466,7 +13466,7 @@
         <v>0</v>
       </c>
       <c r="M146" s="72">
-        <v>176.10899999999998</v>
+        <v>176.10900000000001</v>
       </c>
       <c r="N146" s="72">
         <v>0</v>
@@ -13627,7 +13627,7 @@
         <v>70</v>
       </c>
       <c r="K150" s="72">
-        <v>59.370999999999995</v>
+        <v>59.371000000000009</v>
       </c>
       <c r="L150" s="72">
         <v>193.27199999999999</v>
@@ -13674,13 +13674,13 @@
         <v>43.564999999999998</v>
       </c>
       <c r="L151" s="72">
-        <v>98.392000000000024</v>
+        <v>98.391999999999996</v>
       </c>
       <c r="M151" s="72">
         <v>154.251</v>
       </c>
       <c r="N151" s="72">
-        <v>141.95700000000002</v>
+        <v>141.95699999999999</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
@@ -13718,13 +13718,13 @@
         <v>42.627000000000002</v>
       </c>
       <c r="L152" s="72">
-        <v>122.31</v>
+        <v>122.30999999999997</v>
       </c>
       <c r="M152" s="72">
-        <v>19.647000000000002</v>
+        <v>19.646999999999998</v>
       </c>
       <c r="N152" s="72">
-        <v>164.93700000000001</v>
+        <v>164.93699999999998</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
@@ -13765,7 +13765,7 @@
         <v>136.40500000000003</v>
       </c>
       <c r="M153" s="72">
-        <v>28.532</v>
+        <v>28.531999999999996</v>
       </c>
       <c r="N153" s="72">
         <v>151.91000000000003</v>
@@ -13806,13 +13806,13 @@
         <v>10.507000000000001</v>
       </c>
       <c r="L154" s="72">
-        <v>116.72899999999998</v>
+        <v>116.729</v>
       </c>
       <c r="M154" s="72">
-        <v>35.180999999999997</v>
+        <v>35.181000000000004</v>
       </c>
       <c r="N154" s="72">
-        <v>127.23599999999999</v>
+        <v>127.236</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
@@ -13850,7 +13850,7 @@
         <v>0</v>
       </c>
       <c r="M155" s="72">
-        <v>127.23599999999999</v>
+        <v>127.236</v>
       </c>
       <c r="N155" s="72">
         <v>0</v>
@@ -13879,7 +13879,7 @@
         <v>70</v>
       </c>
       <c r="K156" s="72">
-        <v>101.08700000000002</v>
+        <v>101.08699999999999</v>
       </c>
       <c r="L156" s="72">
         <v>0</v>
@@ -13888,7 +13888,7 @@
         <v>0</v>
       </c>
       <c r="N156" s="72">
-        <v>101.08700000000002</v>
+        <v>101.08699999999999</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
@@ -13926,13 +13926,13 @@
         <v>23.722000000000001</v>
       </c>
       <c r="L157" s="72">
-        <v>95.239000000000004</v>
+        <v>95.238999999999976</v>
       </c>
       <c r="M157" s="72">
         <v>5.8479999999999999</v>
       </c>
       <c r="N157" s="72">
-        <v>118.961</v>
+        <v>118.96099999999998</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
@@ -13967,7 +13967,7 @@
         <v>70</v>
       </c>
       <c r="K158" s="72">
-        <v>21.488999999999997</v>
+        <v>21.489000000000004</v>
       </c>
       <c r="L158" s="72">
         <v>113.78900000000002</v>
@@ -14055,7 +14055,7 @@
         <v>70</v>
       </c>
       <c r="K160" s="72">
-        <v>42.677999999999997</v>
+        <v>42.678000000000004</v>
       </c>
       <c r="L160" s="72">
         <v>91.807999999999993</v>
@@ -14102,13 +14102,13 @@
         <v>42.948</v>
       </c>
       <c r="L161" s="72">
-        <v>111.51899999999998</v>
+        <v>111.51900000000001</v>
       </c>
       <c r="M161" s="72">
         <v>22.966999999999999</v>
       </c>
       <c r="N161" s="72">
-        <v>154.46699999999998</v>
+        <v>154.46700000000001</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
@@ -14193,7 +14193,7 @@
         <v>111.05500000000001</v>
       </c>
       <c r="M163" s="72">
-        <v>32.632000000000005</v>
+        <v>32.631999999999998</v>
       </c>
       <c r="N163" s="72">
         <v>120.44900000000001</v>
@@ -14307,7 +14307,7 @@
         <v>70</v>
       </c>
       <c r="K166" s="72">
-        <v>49.93</v>
+        <v>49.929999999999993</v>
       </c>
       <c r="L166" s="72">
         <v>202.67000000000002</v>
@@ -14351,7 +14351,7 @@
         <v>70</v>
       </c>
       <c r="K167" s="72">
-        <v>32.624000000000002</v>
+        <v>32.623999999999995</v>
       </c>
       <c r="L167" s="72">
         <v>216.08799999999999</v>
@@ -17989,7 +17989,7 @@
         <v>24.516000000000002</v>
       </c>
       <c r="M252" s="72">
-        <v>11.184000000000001</v>
+        <v>11.183999999999999</v>
       </c>
       <c r="N252" s="72">
         <v>26.688000000000002</v>
@@ -18033,7 +18033,7 @@
         <v>15.329000000000001</v>
       </c>
       <c r="M253" s="72">
-        <v>11.359</v>
+        <v>11.359000000000002</v>
       </c>
       <c r="N253" s="72">
         <v>17.172000000000001</v>
@@ -18147,16 +18147,16 @@
         <v>70</v>
       </c>
       <c r="K256" s="72">
-        <v>43.671000000000006</v>
+        <v>43.670999999999999</v>
       </c>
       <c r="L256" s="72">
-        <v>32.196000000000012</v>
+        <v>32.196000000000005</v>
       </c>
       <c r="M256" s="72">
         <v>1.9910000000000001</v>
       </c>
       <c r="N256" s="72">
-        <v>75.867000000000019</v>
+        <v>75.867000000000004</v>
       </c>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.25">
@@ -18194,13 +18194,13 @@
         <v>33.665000000000006</v>
       </c>
       <c r="L257" s="72">
-        <v>71.987000000000009</v>
+        <v>71.986999999999981</v>
       </c>
       <c r="M257" s="72">
         <v>3.88</v>
       </c>
       <c r="N257" s="72">
-        <v>105.65200000000002</v>
+        <v>105.65199999999999</v>
       </c>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.25">
@@ -18238,13 +18238,13 @@
         <v>28.134</v>
       </c>
       <c r="L258" s="72">
-        <v>74.912999999999997</v>
+        <v>74.913000000000011</v>
       </c>
       <c r="M258" s="72">
-        <v>30.739000000000001</v>
+        <v>30.738999999999997</v>
       </c>
       <c r="N258" s="72">
-        <v>103.047</v>
+        <v>103.04700000000001</v>
       </c>
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.25">
@@ -18279,10 +18279,10 @@
         <v>70</v>
       </c>
       <c r="K259" s="72">
-        <v>29.541</v>
+        <v>29.540999999999997</v>
       </c>
       <c r="L259" s="72">
-        <v>28.096</v>
+        <v>28.096000000000004</v>
       </c>
       <c r="M259" s="72">
         <v>74.950999999999993</v>
@@ -18367,16 +18367,16 @@
         <v>70</v>
       </c>
       <c r="K261" s="72">
-        <v>12.403</v>
+        <v>12.402999999999999</v>
       </c>
       <c r="L261" s="72">
-        <v>47.510000000000012</v>
+        <v>47.51</v>
       </c>
       <c r="M261" s="72">
         <v>16.619</v>
       </c>
       <c r="N261" s="72">
-        <v>59.913000000000011</v>
+        <v>59.912999999999997</v>
       </c>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.25">
@@ -18417,7 +18417,7 @@
         <v>33.221999999999994</v>
       </c>
       <c r="M262" s="72">
-        <v>26.690999999999995</v>
+        <v>26.690999999999999</v>
       </c>
       <c r="N262" s="72">
         <v>37.025999999999996</v>
@@ -18575,16 +18575,16 @@
         <v>70</v>
       </c>
       <c r="K266" s="72">
-        <v>26.776</v>
+        <v>26.775999999999996</v>
       </c>
       <c r="L266" s="72">
-        <v>56.503000000000014</v>
+        <v>56.503</v>
       </c>
       <c r="M266" s="72">
         <v>3.8679999999999999</v>
       </c>
       <c r="N266" s="72">
-        <v>83.279000000000011</v>
+        <v>83.278999999999996</v>
       </c>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.25">
@@ -18625,7 +18625,7 @@
         <v>58.323999999999991</v>
       </c>
       <c r="M267" s="72">
-        <v>24.955000000000002</v>
+        <v>24.954999999999998</v>
       </c>
       <c r="N267" s="72">
         <v>82.611999999999995</v>
@@ -18666,13 +18666,13 @@
         <v>10.558</v>
       </c>
       <c r="L268" s="72">
-        <v>26.322000000000003</v>
+        <v>26.321999999999996</v>
       </c>
       <c r="M268" s="72">
         <v>56.29</v>
       </c>
       <c r="N268" s="72">
-        <v>36.880000000000003</v>
+        <v>36.879999999999995</v>
       </c>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.25">
@@ -22002,7 +22002,7 @@
         <v>0</v>
       </c>
       <c r="M346" s="72">
-        <v>44.052000000000007</v>
+        <v>44.052</v>
       </c>
       <c r="N346" s="72">
         <v>0</v>
@@ -22254,13 +22254,13 @@
         <v>31.073999999999998</v>
       </c>
       <c r="L352" s="72">
-        <v>34.072000000000017</v>
+        <v>34.072000000000003</v>
       </c>
       <c r="M352" s="72">
         <v>4.609</v>
       </c>
       <c r="N352" s="72">
-        <v>65.146000000000015</v>
+        <v>65.146000000000001</v>
       </c>
     </row>
     <row r="353" spans="1:14" x14ac:dyDescent="0.25">
@@ -22298,13 +22298,13 @@
         <v>61.730000000000004</v>
       </c>
       <c r="L353" s="72">
-        <v>54.685000000000002</v>
+        <v>54.685000000000016</v>
       </c>
       <c r="M353" s="72">
         <v>10.460999999999999</v>
       </c>
       <c r="N353" s="72">
-        <v>116.41500000000001</v>
+        <v>116.41500000000002</v>
       </c>
     </row>
     <row r="354" spans="1:14" x14ac:dyDescent="0.25">
@@ -22345,7 +22345,7 @@
         <v>75.328999999999994</v>
       </c>
       <c r="M354" s="72">
-        <v>41.085999999999999</v>
+        <v>41.086000000000006</v>
       </c>
       <c r="N354" s="72">
         <v>109.892</v>
@@ -22386,13 +22386,13 @@
         <v>47.622</v>
       </c>
       <c r="L355" s="72">
-        <v>38.03</v>
+        <v>38.030000000000015</v>
       </c>
       <c r="M355" s="72">
         <v>71.861999999999995</v>
       </c>
       <c r="N355" s="72">
-        <v>85.652000000000001</v>
+        <v>85.652000000000015</v>
       </c>
     </row>
     <row r="356" spans="1:14" x14ac:dyDescent="0.25">
@@ -22436,7 +22436,7 @@
         <v>59.975000000000001</v>
       </c>
       <c r="N356" s="72">
-        <v>29.070999999999998</v>
+        <v>29.071000000000002</v>
       </c>
     </row>
     <row r="357" spans="1:14" x14ac:dyDescent="0.25">
@@ -22474,7 +22474,7 @@
         <v>0</v>
       </c>
       <c r="M357" s="72">
-        <v>29.070999999999998</v>
+        <v>29.071000000000002</v>
       </c>
       <c r="N357" s="72">
         <v>0</v>
@@ -22547,16 +22547,16 @@
         <v>70</v>
       </c>
       <c r="K359" s="72">
-        <v>10.406000000000001</v>
+        <v>10.405999999999999</v>
       </c>
       <c r="L359" s="72">
-        <v>7.618999999999998</v>
+        <v>7.6190000000000033</v>
       </c>
       <c r="M359" s="72">
         <v>1.9910000000000001</v>
       </c>
       <c r="N359" s="72">
-        <v>18.024999999999999</v>
+        <v>18.025000000000002</v>
       </c>
     </row>
     <row r="360" spans="1:14" x14ac:dyDescent="0.25">
@@ -22591,13 +22591,13 @@
         <v>70</v>
       </c>
       <c r="K360" s="72">
-        <v>8.7890000000000015</v>
+        <v>8.7889999999999997</v>
       </c>
       <c r="L360" s="72">
-        <v>14.142999999999997</v>
+        <v>14.142999999999999</v>
       </c>
       <c r="M360" s="72">
-        <v>3.8819999999999997</v>
+        <v>3.8820000000000001</v>
       </c>
       <c r="N360" s="72">
         <v>22.931999999999999</v>
@@ -22726,13 +22726,13 @@
         <v>44.924999999999997</v>
       </c>
       <c r="L363" s="72">
-        <v>40.300000000000011</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="M363" s="72">
-        <v>4.543000000000001</v>
+        <v>4.5430000000000001</v>
       </c>
       <c r="N363" s="72">
-        <v>85.225000000000009</v>
+        <v>85.224999999999994</v>
       </c>
     </row>
     <row r="364" spans="1:14" x14ac:dyDescent="0.25">
@@ -22814,13 +22814,13 @@
         <v>39.873000000000005</v>
       </c>
       <c r="L365" s="72">
-        <v>107.46699999999997</v>
+        <v>107.46700000000003</v>
       </c>
       <c r="M365" s="72">
         <v>56.61</v>
       </c>
       <c r="N365" s="72">
-        <v>147.33999999999997</v>
+        <v>147.34000000000003</v>
       </c>
     </row>
     <row r="366" spans="1:14" x14ac:dyDescent="0.25">
@@ -23019,10 +23019,10 @@
         <v>70</v>
       </c>
       <c r="K370" s="72">
-        <v>10.367999999999999</v>
+        <v>10.368</v>
       </c>
       <c r="L370" s="72">
-        <v>7.6020000000000003</v>
+        <v>7.6019999999999985</v>
       </c>
       <c r="M370" s="72">
         <v>1.986</v>
@@ -23063,10 +23063,10 @@
         <v>70</v>
       </c>
       <c r="K371" s="72">
-        <v>9.2810000000000006</v>
+        <v>9.2809999999999988</v>
       </c>
       <c r="L371" s="72">
-        <v>14.1</v>
+        <v>14.100000000000001</v>
       </c>
       <c r="M371" s="72">
         <v>3.87</v>
@@ -23113,7 +23113,7 @@
         <v>16.968000000000004</v>
       </c>
       <c r="M372" s="72">
-        <v>6.4130000000000003</v>
+        <v>6.4129999999999994</v>
       </c>
       <c r="N372" s="72">
         <v>30.331000000000003</v>
@@ -23151,13 +23151,13 @@
         <v>70</v>
       </c>
       <c r="K373" s="72">
-        <v>14.216000000000001</v>
+        <v>14.215999999999999</v>
       </c>
       <c r="L373" s="72">
         <v>23.595999999999997</v>
       </c>
       <c r="M373" s="72">
-        <v>6.7349999999999994</v>
+        <v>6.7350000000000003</v>
       </c>
       <c r="N373" s="72">
         <v>37.811999999999998</v>
@@ -27443,13 +27443,13 @@
         <v>70</v>
       </c>
       <c r="K473" s="72">
-        <v>8.6709999999999994</v>
+        <v>8.6710000000000012</v>
       </c>
       <c r="L473" s="72">
         <v>43.321999999999996</v>
       </c>
       <c r="M473" s="72">
-        <v>30.410999999999994</v>
+        <v>30.411000000000001</v>
       </c>
       <c r="N473" s="72">
         <v>51.992999999999995</v>
@@ -27490,13 +27490,13 @@
         <v>11.469000000000001</v>
       </c>
       <c r="L474" s="72">
-        <v>39.630999999999993</v>
+        <v>39.631000000000007</v>
       </c>
       <c r="M474" s="72">
-        <v>12.362000000000002</v>
+        <v>12.361999999999998</v>
       </c>
       <c r="N474" s="72">
-        <v>51.099999999999994</v>
+        <v>51.100000000000009</v>
       </c>
     </row>
     <row r="475" spans="1:14" x14ac:dyDescent="0.25">
@@ -27531,7 +27531,7 @@
         <v>70</v>
       </c>
       <c r="K475" s="72">
-        <v>10.813000000000001</v>
+        <v>10.812999999999999</v>
       </c>
       <c r="L475" s="72">
         <v>36.432999999999993</v>
@@ -27739,16 +27739,16 @@
         <v>70</v>
       </c>
       <c r="K480" s="72">
-        <v>75.266000000000005</v>
+        <v>75.265999999999991</v>
       </c>
       <c r="L480" s="72">
-        <v>32.170999999999978</v>
+        <v>32.171000000000021</v>
       </c>
       <c r="M480" s="72">
         <v>4.1150000000000002</v>
       </c>
       <c r="N480" s="72">
-        <v>107.43699999999998</v>
+        <v>107.43700000000001</v>
       </c>
     </row>
     <row r="481" spans="1:14" x14ac:dyDescent="0.25">
@@ -27830,13 +27830,13 @@
         <v>43.546999999999997</v>
       </c>
       <c r="L482" s="72">
-        <v>73.015000000000001</v>
+        <v>73.015000000000015</v>
       </c>
       <c r="M482" s="72">
         <v>12.373999999999999</v>
       </c>
       <c r="N482" s="72">
-        <v>116.562</v>
+        <v>116.56200000000001</v>
       </c>
     </row>
     <row r="483" spans="1:14" x14ac:dyDescent="0.25">
@@ -27874,13 +27874,13 @@
         <v>22.003</v>
       </c>
       <c r="L483" s="72">
-        <v>55.023999999999987</v>
+        <v>55.024000000000015</v>
       </c>
       <c r="M483" s="72">
-        <v>61.538000000000004</v>
+        <v>61.537999999999997</v>
       </c>
       <c r="N483" s="72">
-        <v>77.026999999999987</v>
+        <v>77.027000000000015</v>
       </c>
     </row>
     <row r="484" spans="1:14" x14ac:dyDescent="0.25">
@@ -27918,13 +27918,13 @@
         <v>8.6370000000000005</v>
       </c>
       <c r="L484" s="72">
-        <v>48.475000000000001</v>
+        <v>48.475000000000009</v>
       </c>
       <c r="M484" s="72">
         <v>28.552</v>
       </c>
       <c r="N484" s="72">
-        <v>57.112000000000002</v>
+        <v>57.112000000000009</v>
       </c>
     </row>
     <row r="485" spans="1:14" x14ac:dyDescent="0.25">
@@ -27968,7 +27968,7 @@
         <v>15.808</v>
       </c>
       <c r="N485" s="72">
-        <v>52.448999999999998</v>
+        <v>52.449000000000005</v>
       </c>
     </row>
     <row r="486" spans="1:14" x14ac:dyDescent="0.25">
@@ -28003,13 +28003,13 @@
         <v>70</v>
       </c>
       <c r="K486" s="72">
-        <v>10.620000000000001</v>
+        <v>10.62</v>
       </c>
       <c r="L486" s="72">
-        <v>36.218999999999994</v>
+        <v>36.219000000000001</v>
       </c>
       <c r="M486" s="72">
-        <v>16.229999999999997</v>
+        <v>16.23</v>
       </c>
       <c r="N486" s="72">
         <v>46.838999999999999</v>
@@ -28050,13 +28050,13 @@
         <v>13.225999999999999</v>
       </c>
       <c r="L487" s="72">
-        <v>37.722000000000001</v>
+        <v>37.721999999999994</v>
       </c>
       <c r="M487" s="72">
-        <v>9.1169999999999991</v>
+        <v>9.1170000000000009</v>
       </c>
       <c r="N487" s="72">
-        <v>50.948</v>
+        <v>50.947999999999993</v>
       </c>
     </row>
     <row r="488" spans="1:14" x14ac:dyDescent="0.25">
@@ -28214,13 +28214,13 @@
         <v>115.73099999999999</v>
       </c>
       <c r="L491" s="72">
-        <v>49.725999999999999</v>
+        <v>49.726000000000028</v>
       </c>
       <c r="M491" s="72">
         <v>6.0039999999999996</v>
       </c>
       <c r="N491" s="72">
-        <v>165.45699999999999</v>
+        <v>165.45700000000002</v>
       </c>
     </row>
     <row r="492" spans="1:14" x14ac:dyDescent="0.25">
@@ -28255,16 +28255,16 @@
         <v>70</v>
       </c>
       <c r="K492" s="72">
-        <v>54.097999999999999</v>
+        <v>54.098000000000006</v>
       </c>
       <c r="L492" s="72">
-        <v>25.184000000000012</v>
+        <v>25.183999999999976</v>
       </c>
       <c r="M492" s="72">
-        <v>140.27300000000002</v>
+        <v>140.273</v>
       </c>
       <c r="N492" s="72">
-        <v>79.282000000000011</v>
+        <v>79.281999999999982</v>
       </c>
     </row>
     <row r="493" spans="1:14" x14ac:dyDescent="0.25">
@@ -28299,10 +28299,10 @@
         <v>70</v>
       </c>
       <c r="K493" s="72">
-        <v>44.129999999999995</v>
+        <v>44.13</v>
       </c>
       <c r="L493" s="72">
-        <v>59.22999999999999</v>
+        <v>59.229999999999983</v>
       </c>
       <c r="M493" s="72">
         <v>20.052</v>
@@ -32465,7 +32465,7 @@
         <v>30.960000000000004</v>
       </c>
       <c r="M590" s="72">
-        <v>72.604000000000013</v>
+        <v>72.603999999999999</v>
       </c>
       <c r="N590" s="72">
         <v>37.742000000000004</v>
@@ -32626,13 +32626,13 @@
         <v>43.531999999999996</v>
       </c>
       <c r="L594" s="72">
-        <v>58.750999999999991</v>
+        <v>58.751000000000005</v>
       </c>
       <c r="M594" s="72">
         <v>9.2750000000000004</v>
       </c>
       <c r="N594" s="72">
-        <v>102.28299999999999</v>
+        <v>102.283</v>
       </c>
     </row>
     <row r="595" spans="1:14" x14ac:dyDescent="0.25">
@@ -32667,7 +32667,7 @@
         <v>70</v>
       </c>
       <c r="K595" s="72">
-        <v>26.09</v>
+        <v>26.090000000000003</v>
       </c>
       <c r="L595" s="72">
         <v>42.221000000000004</v>
@@ -32717,7 +32717,7 @@
         <v>47.328000000000003</v>
       </c>
       <c r="M596" s="72">
-        <v>20.983000000000001</v>
+        <v>20.982999999999997</v>
       </c>
       <c r="N596" s="72">
         <v>70.125</v>
@@ -32758,13 +32758,13 @@
         <v>4.28</v>
       </c>
       <c r="L597" s="72">
-        <v>20.753999999999998</v>
+        <v>20.754000000000001</v>
       </c>
       <c r="M597" s="72">
-        <v>49.371000000000009</v>
+        <v>49.370999999999995</v>
       </c>
       <c r="N597" s="72">
-        <v>25.033999999999999</v>
+        <v>25.034000000000002</v>
       </c>
     </row>
     <row r="598" spans="1:14" x14ac:dyDescent="0.25">
@@ -32802,7 +32802,7 @@
         <v>0</v>
       </c>
       <c r="M598" s="72">
-        <v>25.033999999999999</v>
+        <v>25.034000000000002</v>
       </c>
       <c r="N598" s="72">
         <v>0</v>
@@ -32875,16 +32875,16 @@
         <v>70</v>
       </c>
       <c r="K600" s="72">
-        <v>80.122000000000014</v>
+        <v>80.122</v>
       </c>
       <c r="L600" s="72">
-        <v>35.991999999999976</v>
+        <v>35.992000000000004</v>
       </c>
       <c r="M600" s="72">
         <v>6.6360000000000001</v>
       </c>
       <c r="N600" s="72">
-        <v>116.11399999999999</v>
+        <v>116.114</v>
       </c>
     </row>
     <row r="601" spans="1:14" x14ac:dyDescent="0.25">
@@ -32922,13 +32922,13 @@
         <v>56.275000000000006</v>
       </c>
       <c r="L601" s="72">
-        <v>68.569999999999993</v>
+        <v>68.570000000000007</v>
       </c>
       <c r="M601" s="72">
-        <v>47.543999999999997</v>
+        <v>47.544000000000011</v>
       </c>
       <c r="N601" s="72">
-        <v>124.845</v>
+        <v>124.84500000000001</v>
       </c>
     </row>
     <row r="602" spans="1:14" x14ac:dyDescent="0.25">
@@ -32966,13 +32966,13 @@
         <v>31.884</v>
       </c>
       <c r="L602" s="72">
-        <v>43.14800000000001</v>
+        <v>43.147999999999982</v>
       </c>
       <c r="M602" s="72">
         <v>81.697000000000003</v>
       </c>
       <c r="N602" s="72">
-        <v>75.032000000000011</v>
+        <v>75.031999999999982</v>
       </c>
     </row>
     <row r="603" spans="1:14" x14ac:dyDescent="0.25">
@@ -33010,13 +33010,13 @@
         <v>37.823000000000008</v>
       </c>
       <c r="L603" s="72">
-        <v>58.444999999999993</v>
+        <v>58.444999999999979</v>
       </c>
       <c r="M603" s="72">
         <v>16.587</v>
       </c>
       <c r="N603" s="72">
-        <v>96.268000000000001</v>
+        <v>96.267999999999986</v>
       </c>
     </row>
     <row r="604" spans="1:14" x14ac:dyDescent="0.25">
@@ -35671,16 +35671,16 @@
         <v>70</v>
       </c>
       <c r="K666" s="72">
-        <v>50.142000000000003</v>
+        <v>50.141999999999996</v>
       </c>
       <c r="L666" s="72">
-        <v>52.493000000000002</v>
+        <v>52.492999999999995</v>
       </c>
       <c r="M666" s="72">
         <v>21.262999999999998</v>
       </c>
       <c r="N666" s="72">
-        <v>102.63500000000001</v>
+        <v>102.63499999999999</v>
       </c>
     </row>
     <row r="667" spans="1:14" x14ac:dyDescent="0.25">
@@ -35882,13 +35882,13 @@
         <v>38.418000000000006</v>
       </c>
       <c r="L671" s="72">
-        <v>79.894999999999996</v>
+        <v>79.894999999999982</v>
       </c>
       <c r="M671" s="72">
-        <v>63.480999999999995</v>
+        <v>63.481000000000002</v>
       </c>
       <c r="N671" s="72">
-        <v>118.313</v>
+        <v>118.31299999999999</v>
       </c>
     </row>
     <row r="672" spans="1:14" x14ac:dyDescent="0.25">
@@ -35929,7 +35929,7 @@
         <v>39.483999999999995</v>
       </c>
       <c r="M672" s="72">
-        <v>78.829000000000008</v>
+        <v>78.828999999999994</v>
       </c>
       <c r="N672" s="72">
         <v>66.152999999999992</v>
@@ -35967,10 +35967,10 @@
         <v>70</v>
       </c>
       <c r="K673" s="72">
-        <v>33.609000000000002</v>
+        <v>33.609000000000009</v>
       </c>
       <c r="L673" s="72">
-        <v>53.663999999999994</v>
+        <v>53.663999999999987</v>
       </c>
       <c r="M673" s="72">
         <v>12.489000000000001</v>
@@ -36014,13 +36014,13 @@
         <v>4.6379999999999999</v>
       </c>
       <c r="L674" s="72">
-        <v>24.122</v>
+        <v>24.122000000000007</v>
       </c>
       <c r="M674" s="72">
         <v>63.150999999999996</v>
       </c>
       <c r="N674" s="72">
-        <v>28.759999999999998</v>
+        <v>28.760000000000005</v>
       </c>
     </row>
     <row r="675" spans="1:14" x14ac:dyDescent="0.25">
@@ -36058,7 +36058,7 @@
         <v>0</v>
       </c>
       <c r="M675" s="72">
-        <v>28.759999999999998</v>
+        <v>28.760000000000005</v>
       </c>
       <c r="N675" s="72">
         <v>0</v>
@@ -36134,13 +36134,13 @@
         <v>82.093999999999994</v>
       </c>
       <c r="L677" s="72">
-        <v>34.443000000000012</v>
+        <v>34.442999999999998</v>
       </c>
       <c r="M677" s="72">
         <v>4.1059999999999999</v>
       </c>
       <c r="N677" s="72">
-        <v>116.53700000000001</v>
+        <v>116.53699999999999</v>
       </c>
     </row>
     <row r="678" spans="1:14" x14ac:dyDescent="0.25">
@@ -36181,7 +36181,7 @@
         <v>62.366</v>
       </c>
       <c r="M678" s="72">
-        <v>54.170999999999999</v>
+        <v>54.171000000000006</v>
       </c>
       <c r="N678" s="72">
         <v>103.30799999999999</v>
@@ -36225,7 +36225,7 @@
         <v>43.850999999999985</v>
       </c>
       <c r="M679" s="72">
-        <v>59.456999999999994</v>
+        <v>59.457000000000001</v>
       </c>
       <c r="N679" s="72">
         <v>68.830999999999989</v>
@@ -38795,10 +38795,10 @@
         <v>70</v>
       </c>
       <c r="K740" s="72">
-        <v>70.228999999999999</v>
+        <v>70.228999999999985</v>
       </c>
       <c r="L740" s="72">
-        <v>29.082000000000008</v>
+        <v>29.082000000000022</v>
       </c>
       <c r="M740" s="72">
         <v>4.0510000000000002</v>
@@ -38839,16 +38839,16 @@
         <v>70</v>
       </c>
       <c r="K741" s="72">
-        <v>39.143000000000001</v>
+        <v>39.142999999999994</v>
       </c>
       <c r="L741" s="72">
-        <v>72.068999999999988</v>
+        <v>72.069000000000017</v>
       </c>
       <c r="M741" s="72">
         <v>27.241999999999997</v>
       </c>
       <c r="N741" s="72">
-        <v>111.21199999999999</v>
+        <v>111.21200000000002</v>
       </c>
     </row>
     <row r="742" spans="1:14" x14ac:dyDescent="0.25">
@@ -38927,13 +38927,13 @@
         <v>70</v>
       </c>
       <c r="K743" s="72">
-        <v>29.119999999999997</v>
+        <v>29.12</v>
       </c>
       <c r="L743" s="72">
-        <v>54.780000000000008</v>
+        <v>54.78</v>
       </c>
       <c r="M743" s="72">
-        <v>16.065000000000001</v>
+        <v>16.064999999999998</v>
       </c>
       <c r="N743" s="72">
         <v>83.9</v>
@@ -38977,7 +38977,7 @@
         <v>24.805000000000003</v>
       </c>
       <c r="M744" s="72">
-        <v>59.095000000000013</v>
+        <v>59.094999999999999</v>
       </c>
       <c r="N744" s="72">
         <v>29.322000000000003</v>
@@ -40454,13 +40454,13 @@
         <v>3.8129999999999997</v>
       </c>
       <c r="L779" s="72">
-        <v>21.285</v>
+        <v>21.285000000000004</v>
       </c>
       <c r="M779" s="72">
         <v>50.762</v>
       </c>
       <c r="N779" s="72">
-        <v>25.097999999999999</v>
+        <v>25.098000000000003</v>
       </c>
     </row>
     <row r="780" spans="1:14" x14ac:dyDescent="0.25">
@@ -40498,7 +40498,7 @@
         <v>0</v>
       </c>
       <c r="M780" s="72">
-        <v>25.097999999999999</v>
+        <v>25.098000000000003</v>
       </c>
       <c r="N780" s="72">
         <v>0</v>
@@ -40571,10 +40571,10 @@
         <v>70</v>
       </c>
       <c r="K782" s="72">
-        <v>111.77200000000001</v>
+        <v>111.77199999999999</v>
       </c>
       <c r="L782" s="72">
-        <v>47.009</v>
+        <v>47.009000000000015</v>
       </c>
       <c r="M782" s="72">
         <v>3.7450000000000001</v>
@@ -40621,7 +40621,7 @@
         <v>99.167999999999992</v>
       </c>
       <c r="M783" s="72">
-        <v>59.613</v>
+        <v>59.612999999999992</v>
       </c>
       <c r="N783" s="72">
         <v>131.97399999999999</v>
@@ -42614,13 +42614,13 @@
         <v>28.019000000000002</v>
       </c>
       <c r="L830" s="72">
-        <v>51.09099999999998</v>
+        <v>51.090999999999994</v>
       </c>
       <c r="M830" s="72">
         <v>15.742000000000001</v>
       </c>
       <c r="N830" s="72">
-        <v>79.109999999999985</v>
+        <v>79.11</v>
       </c>
     </row>
     <row r="831" spans="1:14" x14ac:dyDescent="0.25">
@@ -42702,13 +42702,13 @@
         <v>4.7560000000000002</v>
       </c>
       <c r="L832" s="72">
-        <v>42.880999999999986</v>
+        <v>42.881</v>
       </c>
       <c r="M832" s="72">
-        <v>52.553000000000004</v>
+        <v>52.552999999999997</v>
       </c>
       <c r="N832" s="72">
-        <v>47.636999999999986</v>
+        <v>47.637</v>
       </c>
     </row>
     <row r="833" spans="1:14" x14ac:dyDescent="0.25">
@@ -42746,7 +42746,7 @@
         <v>0</v>
       </c>
       <c r="M833" s="72">
-        <v>47.636999999999986</v>
+        <v>47.637</v>
       </c>
       <c r="N833" s="72">
         <v>0</v>
@@ -42866,13 +42866,13 @@
         <v>34.897999999999996</v>
       </c>
       <c r="L836" s="72">
-        <v>57.39700000000002</v>
+        <v>57.397000000000006</v>
       </c>
       <c r="M836" s="72">
-        <v>10.094000000000001</v>
+        <v>10.093999999999999</v>
       </c>
       <c r="N836" s="72">
-        <v>92.295000000000016</v>
+        <v>92.295000000000002</v>
       </c>
     </row>
     <row r="837" spans="1:14" x14ac:dyDescent="0.25">
@@ -42998,13 +42998,13 @@
         <v>23.36</v>
       </c>
       <c r="L839" s="72">
-        <v>39.00500000000001</v>
+        <v>39.004999999999995</v>
       </c>
       <c r="M839" s="72">
-        <v>15.86</v>
+        <v>15.860000000000001</v>
       </c>
       <c r="N839" s="72">
-        <v>62.365000000000009</v>
+        <v>62.364999999999995</v>
       </c>
     </row>
     <row r="840" spans="1:14" x14ac:dyDescent="0.25">
@@ -43086,13 +43086,13 @@
         <v>4.4809999999999999</v>
       </c>
       <c r="L841" s="72">
-        <v>34.641999999999996</v>
+        <v>34.642000000000003</v>
       </c>
       <c r="M841" s="72">
-        <v>42.477000000000004</v>
+        <v>42.47699999999999</v>
       </c>
       <c r="N841" s="72">
-        <v>39.122999999999998</v>
+        <v>39.123000000000005</v>
       </c>
     </row>
     <row r="842" spans="1:14" x14ac:dyDescent="0.25">
@@ -43130,7 +43130,7 @@
         <v>0</v>
       </c>
       <c r="M842" s="72">
-        <v>39.122999999999998</v>
+        <v>39.123000000000005</v>
       </c>
       <c r="N842" s="72">
         <v>0</v>
@@ -43203,16 +43203,16 @@
         <v>70</v>
       </c>
       <c r="K844" s="72">
-        <v>33.842999999999996</v>
+        <v>33.843000000000004</v>
       </c>
       <c r="L844" s="72">
-        <v>22.152999999999999</v>
+        <v>22.153000000000006</v>
       </c>
       <c r="M844" s="72">
         <v>2.3449999999999998</v>
       </c>
       <c r="N844" s="72">
-        <v>55.995999999999995</v>
+        <v>55.996000000000009</v>
       </c>
     </row>
     <row r="845" spans="1:14" x14ac:dyDescent="0.25">
@@ -43247,16 +43247,16 @@
         <v>70</v>
       </c>
       <c r="K845" s="72">
-        <v>28.266000000000002</v>
+        <v>28.265999999999998</v>
       </c>
       <c r="L845" s="72">
-        <v>46.523999999999987</v>
+        <v>46.524000000000008</v>
       </c>
       <c r="M845" s="72">
         <v>9.4719999999999995</v>
       </c>
       <c r="N845" s="72">
-        <v>74.789999999999992</v>
+        <v>74.790000000000006</v>
       </c>
     </row>
     <row r="846" spans="1:14" x14ac:dyDescent="0.25">
@@ -43291,10 +43291,10 @@
         <v>70</v>
       </c>
       <c r="K846" s="72">
-        <v>32.987000000000002</v>
+        <v>32.986999999999995</v>
       </c>
       <c r="L846" s="72">
-        <v>52.681000000000004</v>
+        <v>52.681000000000012</v>
       </c>
       <c r="M846" s="72">
         <v>22.109000000000002</v>
@@ -43341,10 +43341,10 @@
         <v>38.204999999999998</v>
       </c>
       <c r="M847" s="72">
-        <v>47.463000000000001</v>
+        <v>47.463000000000008</v>
       </c>
       <c r="N847" s="72">
-        <v>58.282000000000004</v>
+        <v>58.281999999999996</v>
       </c>
     </row>
     <row r="848" spans="1:14" x14ac:dyDescent="0.25">
@@ -46586,7 +46586,7 @@
         <v>0</v>
       </c>
       <c r="M923" s="72">
-        <v>19.193000000000001</v>
+        <v>19.192999999999998</v>
       </c>
       <c r="N923" s="72">
         <v>0</v>
@@ -46750,13 +46750,13 @@
         <v>36.335999999999999</v>
       </c>
       <c r="L927" s="72">
-        <v>85.21899999999998</v>
+        <v>85.219000000000008</v>
       </c>
       <c r="M927" s="72">
         <v>25.896999999999998</v>
       </c>
       <c r="N927" s="72">
-        <v>121.55499999999998</v>
+        <v>121.55500000000001</v>
       </c>
     </row>
     <row r="928" spans="1:14" x14ac:dyDescent="0.25">
@@ -46885,7 +46885,7 @@
         <v>37.598999999999997</v>
       </c>
       <c r="M930" s="72">
-        <v>29.17</v>
+        <v>29.169999999999998</v>
       </c>
       <c r="N930" s="72">
         <v>40.747</v>
@@ -46926,13 +46926,13 @@
         <v>2.1929999999999996</v>
       </c>
       <c r="L931" s="72">
-        <v>16.187000000000005</v>
+        <v>16.186999999999998</v>
       </c>
       <c r="M931" s="72">
-        <v>24.56</v>
+        <v>24.560000000000002</v>
       </c>
       <c r="N931" s="72">
-        <v>18.380000000000003</v>
+        <v>18.38</v>
       </c>
     </row>
     <row r="932" spans="1:14" x14ac:dyDescent="0.25">
@@ -46970,7 +46970,7 @@
         <v>0</v>
       </c>
       <c r="M932" s="72">
-        <v>18.380000000000003</v>
+        <v>18.38</v>
       </c>
       <c r="N932" s="72">
         <v>0</v>
@@ -46999,7 +46999,7 @@
         <v>70</v>
       </c>
       <c r="K933" s="72">
-        <v>54.428999999999988</v>
+        <v>54.429000000000002</v>
       </c>
       <c r="L933" s="72">
         <v>0</v>
@@ -47008,7 +47008,7 @@
         <v>0</v>
       </c>
       <c r="N933" s="72">
-        <v>54.428999999999988</v>
+        <v>54.429000000000002</v>
       </c>
     </row>
     <row r="934" spans="1:14" x14ac:dyDescent="0.25">
@@ -47046,13 +47046,13 @@
         <v>62.257999999999996</v>
       </c>
       <c r="L934" s="72">
-        <v>49.966000000000008</v>
+        <v>49.965999999999994</v>
       </c>
       <c r="M934" s="72">
         <v>4.4630000000000001</v>
       </c>
       <c r="N934" s="72">
-        <v>112.224</v>
+        <v>112.22399999999999</v>
       </c>
     </row>
     <row r="935" spans="1:14" x14ac:dyDescent="0.25">
@@ -47087,13 +47087,13 @@
         <v>70</v>
       </c>
       <c r="K935" s="72">
-        <v>23.824999999999999</v>
+        <v>23.825000000000003</v>
       </c>
       <c r="L935" s="72">
         <v>85.481000000000009</v>
       </c>
       <c r="M935" s="72">
-        <v>26.743000000000002</v>
+        <v>26.742999999999999</v>
       </c>
       <c r="N935" s="72">
         <v>109.30600000000001</v>
@@ -47134,13 +47134,13 @@
         <v>26.868000000000002</v>
       </c>
       <c r="L936" s="72">
-        <v>73.302000000000021</v>
+        <v>73.301999999999992</v>
       </c>
       <c r="M936" s="72">
         <v>36.004000000000005</v>
       </c>
       <c r="N936" s="72">
-        <v>100.17000000000002</v>
+        <v>100.16999999999999</v>
       </c>
     </row>
     <row r="937" spans="1:14" x14ac:dyDescent="0.25">
@@ -47175,7 +47175,7 @@
         <v>70</v>
       </c>
       <c r="K937" s="72">
-        <v>18.136999999999997</v>
+        <v>18.137000000000004</v>
       </c>
       <c r="L937" s="72">
         <v>44.020999999999987</v>
@@ -47184,7 +47184,7 @@
         <v>56.149000000000001</v>
       </c>
       <c r="N937" s="72">
-        <v>62.157999999999987</v>
+        <v>62.157999999999994</v>
       </c>
     </row>
     <row r="938" spans="1:14" x14ac:dyDescent="0.25">
@@ -47222,13 +47222,13 @@
         <v>11.363999999999999</v>
       </c>
       <c r="L938" s="72">
-        <v>46.062000000000005</v>
+        <v>46.061999999999998</v>
       </c>
       <c r="M938" s="72">
         <v>16.096</v>
       </c>
       <c r="N938" s="72">
-        <v>57.426000000000002</v>
+        <v>57.425999999999995</v>
       </c>
     </row>
     <row r="939" spans="1:14" x14ac:dyDescent="0.25">
@@ -47430,13 +47430,13 @@
         <v>51.747</v>
       </c>
       <c r="L943" s="72">
-        <v>41.678000000000011</v>
+        <v>41.677999999999997</v>
       </c>
       <c r="M943" s="72">
         <v>4.4359999999999999</v>
       </c>
       <c r="N943" s="72">
-        <v>93.425000000000011</v>
+        <v>93.424999999999997</v>
       </c>
     </row>
     <row r="944" spans="1:14" x14ac:dyDescent="0.25">
@@ -47471,16 +47471,16 @@
         <v>70</v>
       </c>
       <c r="K944" s="72">
-        <v>29.227</v>
+        <v>29.226999999999997</v>
       </c>
       <c r="L944" s="72">
-        <v>78.068999999999988</v>
+        <v>78.069000000000017</v>
       </c>
       <c r="M944" s="72">
         <v>15.355999999999998</v>
       </c>
       <c r="N944" s="72">
-        <v>107.29599999999999</v>
+        <v>107.29600000000001</v>
       </c>
     </row>
     <row r="945" spans="1:14" x14ac:dyDescent="0.25">
@@ -50754,13 +50754,13 @@
         <v>8.0960000000000001</v>
       </c>
       <c r="L1021" s="72">
-        <v>31.950000000000006</v>
+        <v>31.949999999999992</v>
       </c>
       <c r="M1021" s="72">
         <v>7.63</v>
       </c>
       <c r="N1021" s="72">
-        <v>40.046000000000006</v>
+        <v>40.045999999999992</v>
       </c>
     </row>
     <row r="1022" spans="1:14" x14ac:dyDescent="0.25">
@@ -50798,13 +50798,13 @@
         <v>22.941000000000003</v>
       </c>
       <c r="L1022" s="72">
-        <v>32.315999999999995</v>
+        <v>32.315999999999988</v>
       </c>
       <c r="M1022" s="72">
         <v>7.73</v>
       </c>
       <c r="N1022" s="72">
-        <v>55.256999999999998</v>
+        <v>55.256999999999991</v>
       </c>
     </row>
     <row r="1023" spans="1:14" x14ac:dyDescent="0.25">
@@ -50842,7 +50842,7 @@
         <v>0</v>
       </c>
       <c r="M1023" s="72">
-        <v>55.256999999999998</v>
+        <v>55.256999999999991</v>
       </c>
       <c r="N1023" s="72">
         <v>0</v>
@@ -51747,16 +51747,16 @@
         <v>70</v>
       </c>
       <c r="K1045" s="72">
-        <v>3.6150000000000002</v>
+        <v>3.6149999999999998</v>
       </c>
       <c r="L1045" s="72">
-        <v>2.3080000000000007</v>
+        <v>2.3080000000000003</v>
       </c>
       <c r="M1045" s="72">
         <v>2.819</v>
       </c>
       <c r="N1045" s="72">
-        <v>5.9230000000000009</v>
+        <v>5.923</v>
       </c>
     </row>
     <row r="1046" spans="1:14" x14ac:dyDescent="0.25">
@@ -51841,7 +51841,7 @@
         <v>0.35200000000000004</v>
       </c>
       <c r="M1047" s="72">
-        <v>3.5530000000000004</v>
+        <v>3.5529999999999999</v>
       </c>
       <c r="N1047" s="72">
         <v>0.35200000000000004</v>
@@ -53171,7 +53171,7 @@
         <v>70</v>
       </c>
       <c r="K1079" s="72">
-        <v>21.581000000000003</v>
+        <v>21.581</v>
       </c>
       <c r="L1079" s="72">
         <v>35.551000000000002</v>
@@ -53218,13 +53218,13 @@
         <v>44.085000000000008</v>
       </c>
       <c r="L1080" s="72">
-        <v>39.790999999999997</v>
+        <v>39.790999999999968</v>
       </c>
       <c r="M1080" s="72">
         <v>17.341000000000001</v>
       </c>
       <c r="N1080" s="72">
-        <v>83.876000000000005</v>
+        <v>83.875999999999976</v>
       </c>
     </row>
     <row r="1081" spans="1:14" x14ac:dyDescent="0.25">
@@ -53259,16 +53259,16 @@
         <v>70</v>
       </c>
       <c r="K1081" s="72">
-        <v>103.44500000000002</v>
+        <v>103.44500000000001</v>
       </c>
       <c r="L1081" s="72">
-        <v>69.532999999999987</v>
+        <v>69.533000000000058</v>
       </c>
       <c r="M1081" s="72">
         <v>14.343</v>
       </c>
       <c r="N1081" s="72">
-        <v>172.97800000000001</v>
+        <v>172.97800000000007</v>
       </c>
     </row>
     <row r="1082" spans="1:14" x14ac:dyDescent="0.25">
@@ -53303,16 +53303,16 @@
         <v>70</v>
       </c>
       <c r="K1082" s="72">
-        <v>43.618000000000002</v>
+        <v>43.618000000000009</v>
       </c>
       <c r="L1082" s="72">
-        <v>84.90300000000002</v>
+        <v>84.902999999999977</v>
       </c>
       <c r="M1082" s="72">
-        <v>88.074999999999989</v>
+        <v>88.075000000000003</v>
       </c>
       <c r="N1082" s="72">
-        <v>128.52100000000002</v>
+        <v>128.52099999999999</v>
       </c>
     </row>
     <row r="1083" spans="1:14" x14ac:dyDescent="0.25">
@@ -53350,13 +53350,13 @@
         <v>5.6690000000000005</v>
       </c>
       <c r="L1083" s="72">
-        <v>38.031999999999996</v>
+        <v>38.032000000000011</v>
       </c>
       <c r="M1083" s="72">
         <v>90.489000000000004</v>
       </c>
       <c r="N1083" s="72">
-        <v>43.700999999999993</v>
+        <v>43.701000000000008</v>
       </c>
     </row>
     <row r="1084" spans="1:14" x14ac:dyDescent="0.25">
@@ -53394,7 +53394,7 @@
         <v>0</v>
       </c>
       <c r="M1084" s="72">
-        <v>43.700999999999993</v>
+        <v>43.701000000000008</v>
       </c>
       <c r="N1084" s="72">
         <v>0</v>
@@ -53423,7 +53423,7 @@
         <v>70</v>
       </c>
       <c r="K1085" s="72">
-        <v>25.431999999999999</v>
+        <v>25.432000000000002</v>
       </c>
       <c r="L1085" s="72">
         <v>0</v>
@@ -53432,7 +53432,7 @@
         <v>0</v>
       </c>
       <c r="N1085" s="72">
-        <v>25.431999999999999</v>
+        <v>25.432000000000002</v>
       </c>
     </row>
     <row r="1086" spans="1:14" x14ac:dyDescent="0.25">
@@ -53514,13 +53514,13 @@
         <v>50.724000000000004</v>
       </c>
       <c r="L1087" s="72">
-        <v>48.452000000000012</v>
+        <v>48.451999999999998</v>
       </c>
       <c r="M1087" s="72">
         <v>24.363</v>
       </c>
       <c r="N1087" s="72">
-        <v>99.176000000000016</v>
+        <v>99.176000000000002</v>
       </c>
     </row>
     <row r="1088" spans="1:14" x14ac:dyDescent="0.25">
@@ -53555,16 +53555,16 @@
         <v>70</v>
       </c>
       <c r="K1088" s="72">
-        <v>45.445000000000007</v>
+        <v>45.445</v>
       </c>
       <c r="L1088" s="72">
-        <v>51.027999999999977</v>
+        <v>51.028000000000013</v>
       </c>
       <c r="M1088" s="72">
         <v>48.148000000000003</v>
       </c>
       <c r="N1088" s="72">
-        <v>96.472999999999985</v>
+        <v>96.473000000000013</v>
       </c>
     </row>
     <row r="1089" spans="1:14" x14ac:dyDescent="0.25">
@@ -53608,7 +53608,7 @@
         <v>52.616</v>
       </c>
       <c r="N1089" s="72">
-        <v>54.886000000000003</v>
+        <v>54.885999999999996</v>
       </c>
     </row>
     <row r="1090" spans="1:14" x14ac:dyDescent="0.25">
@@ -56006,13 +56006,13 @@
         <v>77.980999999999995</v>
       </c>
       <c r="L1145" s="72">
-        <v>74.542000000000002</v>
+        <v>74.541999999999973</v>
       </c>
       <c r="M1145" s="72">
         <v>13.827999999999999</v>
       </c>
       <c r="N1145" s="72">
-        <v>152.523</v>
+        <v>152.52299999999997</v>
       </c>
     </row>
     <row r="1146" spans="1:14" x14ac:dyDescent="0.25">
@@ -56047,10 +56047,10 @@
         <v>70</v>
       </c>
       <c r="K1146" s="72">
-        <v>93.991</v>
+        <v>93.991000000000014</v>
       </c>
       <c r="L1146" s="72">
-        <v>120.95899999999999</v>
+        <v>120.95899999999997</v>
       </c>
       <c r="M1146" s="72">
         <v>31.564</v>
@@ -56091,10 +56091,10 @@
         <v>70</v>
       </c>
       <c r="K1147" s="72">
-        <v>35.433999999999997</v>
+        <v>35.434000000000005</v>
       </c>
       <c r="L1147" s="72">
-        <v>44.38900000000001</v>
+        <v>44.389000000000003</v>
       </c>
       <c r="M1147" s="72">
         <v>170.56099999999998</v>
@@ -56138,13 +56138,13 @@
         <v>38.561999999999998</v>
       </c>
       <c r="L1148" s="72">
-        <v>60.15100000000001</v>
+        <v>60.150999999999996</v>
       </c>
       <c r="M1148" s="72">
         <v>19.672000000000001</v>
       </c>
       <c r="N1148" s="72">
-        <v>98.713000000000008</v>
+        <v>98.712999999999994</v>
       </c>
     </row>
     <row r="1149" spans="1:14" x14ac:dyDescent="0.25">
@@ -56255,7 +56255,7 @@
         <v>70</v>
       </c>
       <c r="K1151" s="72">
-        <v>21.624999999999996</v>
+        <v>21.625</v>
       </c>
       <c r="L1151" s="72">
         <v>0</v>
@@ -56264,7 +56264,7 @@
         <v>0</v>
       </c>
       <c r="N1151" s="72">
-        <v>21.624999999999996</v>
+        <v>21.625</v>
       </c>
     </row>
     <row r="1152" spans="1:14" x14ac:dyDescent="0.25">
@@ -56390,13 +56390,13 @@
         <v>37.114000000000004</v>
       </c>
       <c r="L1154" s="72">
-        <v>35.638000000000005</v>
+        <v>35.637999999999991</v>
       </c>
       <c r="M1154" s="72">
         <v>32.632999999999996</v>
       </c>
       <c r="N1154" s="72">
-        <v>72.75200000000001</v>
+        <v>72.751999999999995</v>
       </c>
     </row>
     <row r="1155" spans="1:14" x14ac:dyDescent="0.25">
@@ -56434,13 +56434,13 @@
         <v>21.341000000000001</v>
       </c>
       <c r="L1155" s="72">
-        <v>55.911999999999999</v>
+        <v>55.911999999999985</v>
       </c>
       <c r="M1155" s="72">
-        <v>16.84</v>
+        <v>16.840000000000003</v>
       </c>
       <c r="N1155" s="72">
-        <v>77.253</v>
+        <v>77.252999999999986</v>
       </c>
     </row>
     <row r="1156" spans="1:14" x14ac:dyDescent="0.25">
@@ -58794,13 +58794,13 @@
         <v>11.776</v>
       </c>
       <c r="L1210" s="72">
-        <v>47.451999999999998</v>
+        <v>47.452000000000012</v>
       </c>
       <c r="M1210" s="72">
-        <v>28.664999999999999</v>
+        <v>28.665000000000003</v>
       </c>
       <c r="N1210" s="72">
-        <v>59.228000000000002</v>
+        <v>59.228000000000009</v>
       </c>
     </row>
     <row r="1211" spans="1:14" x14ac:dyDescent="0.25">
@@ -58911,7 +58911,7 @@
         <v>70</v>
       </c>
       <c r="K1213" s="72">
-        <v>50.646000000000001</v>
+        <v>50.645999999999994</v>
       </c>
       <c r="L1213" s="72">
         <v>0</v>
@@ -58920,7 +58920,7 @@
         <v>0</v>
       </c>
       <c r="N1213" s="72">
-        <v>50.646000000000001</v>
+        <v>50.645999999999994</v>
       </c>
     </row>
     <row r="1214" spans="1:14" x14ac:dyDescent="0.25">
@@ -58955,16 +58955,16 @@
         <v>70</v>
       </c>
       <c r="K1214" s="72">
-        <v>52.961000000000006</v>
+        <v>52.961000000000013</v>
       </c>
       <c r="L1214" s="72">
-        <v>43.483000000000011</v>
+        <v>43.482999999999976</v>
       </c>
       <c r="M1214" s="72">
         <v>7.1630000000000003</v>
       </c>
       <c r="N1214" s="72">
-        <v>96.444000000000017</v>
+        <v>96.443999999999988</v>
       </c>
     </row>
     <row r="1215" spans="1:14" x14ac:dyDescent="0.25">
@@ -58999,16 +58999,16 @@
         <v>70</v>
       </c>
       <c r="K1215" s="72">
-        <v>48.405000000000001</v>
+        <v>48.405000000000008</v>
       </c>
       <c r="L1215" s="72">
-        <v>17.567999999999998</v>
+        <v>17.567999999999977</v>
       </c>
       <c r="M1215" s="72">
         <v>78.876000000000005</v>
       </c>
       <c r="N1215" s="72">
-        <v>65.972999999999999</v>
+        <v>65.972999999999985</v>
       </c>
     </row>
     <row r="1216" spans="1:14" x14ac:dyDescent="0.25">
@@ -59049,7 +59049,7 @@
         <v>38.689</v>
       </c>
       <c r="M1216" s="72">
-        <v>27.283999999999999</v>
+        <v>27.284000000000002</v>
       </c>
       <c r="N1216" s="72">
         <v>57.122</v>
@@ -60731,16 +60731,16 @@
         <v>70</v>
       </c>
       <c r="K1256" s="72">
-        <v>28.210999999999999</v>
+        <v>28.211000000000002</v>
       </c>
       <c r="L1256" s="72">
-        <v>112.562</v>
+        <v>112.56200000000003</v>
       </c>
       <c r="M1256" s="72">
         <v>6.5109999999999992</v>
       </c>
       <c r="N1256" s="72">
-        <v>140.773</v>
+        <v>140.77300000000002</v>
       </c>
     </row>
     <row r="1257" spans="1:14" x14ac:dyDescent="0.25">
@@ -60775,7 +60775,7 @@
         <v>70</v>
       </c>
       <c r="K1257" s="72">
-        <v>43.225000000000001</v>
+        <v>43.224999999999994</v>
       </c>
       <c r="L1257" s="72">
         <v>110.03900000000002</v>
@@ -60822,13 +60822,13 @@
         <v>42.259</v>
       </c>
       <c r="L1258" s="72">
-        <v>127.026</v>
+        <v>127.02600000000002</v>
       </c>
       <c r="M1258" s="72">
         <v>26.238</v>
       </c>
       <c r="N1258" s="72">
-        <v>169.285</v>
+        <v>169.28500000000003</v>
       </c>
     </row>
     <row r="1259" spans="1:14" x14ac:dyDescent="0.25">
@@ -60866,13 +60866,13 @@
         <v>60.151000000000003</v>
       </c>
       <c r="L1259" s="72">
-        <v>60.417999999999985</v>
+        <v>60.418000000000013</v>
       </c>
       <c r="M1259" s="72">
-        <v>108.86699999999999</v>
+        <v>108.867</v>
       </c>
       <c r="N1259" s="72">
-        <v>120.56899999999999</v>
+        <v>120.56900000000002</v>
       </c>
     </row>
     <row r="1260" spans="1:14" x14ac:dyDescent="0.25">
@@ -60910,13 +60910,13 @@
         <v>3.456</v>
       </c>
       <c r="L1260" s="72">
-        <v>34.530999999999992</v>
+        <v>34.530999999999999</v>
       </c>
       <c r="M1260" s="72">
-        <v>86.038000000000011</v>
+        <v>86.037999999999997</v>
       </c>
       <c r="N1260" s="72">
-        <v>37.986999999999995</v>
+        <v>37.987000000000002</v>
       </c>
     </row>
     <row r="1261" spans="1:14" x14ac:dyDescent="0.25">
@@ -60954,7 +60954,7 @@
         <v>0</v>
       </c>
       <c r="M1261" s="72">
-        <v>37.986999999999995</v>
+        <v>37.987000000000002</v>
       </c>
       <c r="N1261" s="72">
         <v>0</v>
@@ -64918,13 +64918,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="72">
-        <v>258.13924999999995</v>
+        <v>258.13925000000006</v>
       </c>
       <c r="H6" s="72">
         <v>350</v>
       </c>
       <c r="I6" s="76">
-        <v>0.73754071428571411</v>
+        <v>0.73754071428571444</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -64947,13 +64947,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="72">
-        <v>46.930250000000001</v>
+        <v>46.930249999999994</v>
       </c>
       <c r="H7" s="72">
         <v>350</v>
       </c>
       <c r="I7" s="76">
-        <v>0.13408642857142858</v>
+        <v>0.13408642857142855</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -65034,13 +65034,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="72">
-        <v>296.44324999999998</v>
+        <v>296.44325000000003</v>
       </c>
       <c r="H10" s="72">
         <v>350</v>
       </c>
       <c r="I10" s="76">
-        <v>0.8469807142857142</v>
+        <v>0.84698071428571442</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -65150,13 +65150,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="72">
-        <v>80.989750000000114</v>
+        <v>80.989749999999987</v>
       </c>
       <c r="H14" s="72">
         <v>140</v>
       </c>
       <c r="I14" s="76">
-        <v>0.57849821428571513</v>
+        <v>0.57849821428571424</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -65179,13 +65179,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="72">
-        <v>103.20675000000001</v>
+        <v>103.20674999999999</v>
       </c>
       <c r="H15" s="72">
         <v>140</v>
       </c>
       <c r="I15" s="76">
-        <v>0.73719107142857154</v>
+        <v>0.73719107142857132</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -65237,13 +65237,13 @@
         <v>0</v>
       </c>
       <c r="G17" s="72">
-        <v>156.18150000000003</v>
+        <v>156.1815000000002</v>
       </c>
       <c r="H17" s="72">
         <v>490</v>
       </c>
       <c r="I17" s="76">
-        <v>0.31873775510204089</v>
+        <v>0.31873775510204122</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -65266,13 +65266,13 @@
         <v>0</v>
       </c>
       <c r="G18" s="72">
-        <v>40.89999999999997</v>
+        <v>40.899999999999984</v>
       </c>
       <c r="H18" s="72">
         <v>140</v>
       </c>
       <c r="I18" s="76">
-        <v>0.29214285714285693</v>
+        <v>0.29214285714285704</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -65295,13 +65295,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="72">
-        <v>50.377999999999993</v>
+        <v>50.378000000000021</v>
       </c>
       <c r="H19" s="72">
         <v>140</v>
       </c>
       <c r="I19" s="76">
-        <v>0.35984285714285708</v>
+        <v>0.3598428571428573</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -65469,13 +65469,13 @@
         <v>0</v>
       </c>
       <c r="G25" s="72">
-        <v>64.908249999999967</v>
+        <v>64.908249999999953</v>
       </c>
       <c r="H25" s="72">
         <v>210</v>
       </c>
       <c r="I25" s="76">
-        <v>0.30908690476190459</v>
+        <v>0.30908690476190454</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -65498,13 +65498,13 @@
         <v>0</v>
       </c>
       <c r="G26" s="72">
-        <v>38.910249999999998</v>
+        <v>38.910250000000005</v>
       </c>
       <c r="H26" s="72">
         <v>70</v>
       </c>
       <c r="I26" s="76">
-        <v>0.55586071428571426</v>
+        <v>0.55586071428571437</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -65556,13 +65556,13 @@
         <v>0</v>
       </c>
       <c r="G28" s="72">
-        <v>161.97275000000005</v>
+        <v>161.97274999999982</v>
       </c>
       <c r="H28" s="72">
         <v>210</v>
       </c>
       <c r="I28" s="76">
-        <v>0.7712988095238098</v>
+        <v>0.77129880952380869</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -65672,13 +65672,13 @@
         <v>0</v>
       </c>
       <c r="G32" s="72">
-        <v>121.27875000000003</v>
+        <v>121.27875000000002</v>
       </c>
       <c r="H32" s="72">
         <v>210</v>
       </c>
       <c r="I32" s="76">
-        <v>0.5775178571428573</v>
+        <v>0.57751785714285719</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -65701,13 +65701,13 @@
         <v>0</v>
       </c>
       <c r="G33" s="72">
-        <v>175.43349999999995</v>
+        <v>175.43349999999998</v>
       </c>
       <c r="H33" s="72">
         <v>210</v>
       </c>
       <c r="I33" s="76">
-        <v>0.83539761904761878</v>
+        <v>0.835397619047619</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -65730,13 +65730,13 @@
         <v>0</v>
       </c>
       <c r="G34" s="72">
-        <v>686.81524999999851</v>
+        <v>686.81524999999988</v>
       </c>
       <c r="H34" s="72">
         <v>770</v>
       </c>
       <c r="I34" s="76">
-        <v>0.8919678571428552</v>
+        <v>0.89196785714285698</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -65817,13 +65817,13 @@
         <v>0</v>
       </c>
       <c r="G37" s="72">
-        <v>59.180749999999982</v>
+        <v>59.180749999999996</v>
       </c>
       <c r="H37" s="72">
         <v>210</v>
       </c>
       <c r="I37" s="76">
-        <v>0.28181309523809517</v>
+        <v>0.28181309523809522</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -65962,13 +65962,13 @@
         <v>0</v>
       </c>
       <c r="G42" s="72">
-        <v>90.424250000000001</v>
+        <v>90.424250000000043</v>
       </c>
       <c r="H42" s="72">
         <v>140</v>
       </c>
       <c r="I42" s="76">
-        <v>0.64588750000000006</v>
+        <v>0.64588750000000028</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -65991,13 +65991,13 @@
         <v>0</v>
       </c>
       <c r="G43" s="72">
-        <v>47.024249999999995</v>
+        <v>47.024250000000002</v>
       </c>
       <c r="H43" s="72">
         <v>140</v>
       </c>
       <c r="I43" s="76">
-        <v>0.33588749999999995</v>
+        <v>0.33588750000000001</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -66078,13 +66078,13 @@
         <v>0</v>
       </c>
       <c r="G46" s="72">
-        <v>136.14174999999997</v>
+        <v>136.14174999999994</v>
       </c>
       <c r="H46" s="72">
         <v>140</v>
       </c>
       <c r="I46" s="76">
-        <v>0.97244107142857128</v>
+        <v>0.97244107142857106</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -66107,13 +66107,13 @@
         <v>0</v>
       </c>
       <c r="G47" s="72">
-        <v>108.97700000000005</v>
+        <v>108.9770000000001</v>
       </c>
       <c r="H47" s="72">
         <v>140</v>
       </c>
       <c r="I47" s="76">
-        <v>0.77840714285714319</v>
+        <v>0.77840714285714363</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -66194,13 +66194,13 @@
         <v>0</v>
       </c>
       <c r="G50" s="72">
-        <v>124.49674999999993</v>
+        <v>124.49674999999998</v>
       </c>
       <c r="H50" s="72">
         <v>210</v>
       </c>
       <c r="I50" s="76">
-        <v>0.59284166666666638</v>
+        <v>0.5928416666666666</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -66223,13 +66223,13 @@
         <v>0</v>
       </c>
       <c r="G51" s="72">
-        <v>188.66499999999988</v>
+        <v>188.66499999999991</v>
       </c>
       <c r="H51" s="72">
         <v>210</v>
       </c>
       <c r="I51" s="76">
-        <v>0.89840476190476137</v>
+        <v>0.89840476190476148</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -66252,13 +66252,13 @@
         <v>0</v>
       </c>
       <c r="G52" s="72">
-        <v>413.38475000000011</v>
+        <v>413.38474999999954</v>
       </c>
       <c r="H52" s="72">
         <v>700</v>
       </c>
       <c r="I52" s="76">
-        <v>0.59054964285714306</v>
+        <v>0.59054964285714218</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -66281,13 +66281,13 @@
         <v>0</v>
       </c>
       <c r="G53" s="72">
-        <v>525.06874999999991</v>
+        <v>525.06874999999923</v>
       </c>
       <c r="H53" s="72">
         <v>700</v>
       </c>
       <c r="I53" s="76">
-        <v>0.7500982142857141</v>
+        <v>0.75009821428571322</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -66310,13 +66310,13 @@
         <v>0</v>
       </c>
       <c r="G54" s="72">
-        <v>43.96725</v>
+        <v>43.967250000000007</v>
       </c>
       <c r="H54" s="72">
         <v>210</v>
       </c>
       <c r="I54" s="76">
-        <v>0.20936785714285713</v>
+        <v>0.20936785714285719</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -66339,13 +66339,13 @@
         <v>0</v>
       </c>
       <c r="G55" s="72">
-        <v>63.393750000000011</v>
+        <v>63.393750000000018</v>
       </c>
       <c r="H55" s="72">
         <v>210</v>
       </c>
       <c r="I55" s="76">
-        <v>0.30187500000000006</v>
+        <v>0.30187500000000012</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -66484,13 +66484,13 @@
         <v>0</v>
       </c>
       <c r="G60" s="72">
-        <v>91.344500000000011</v>
+        <v>91.344500000000039</v>
       </c>
       <c r="H60" s="72">
         <v>210</v>
       </c>
       <c r="I60" s="76">
-        <v>0.4349738095238096</v>
+        <v>0.43497380952380971</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -66513,13 +66513,13 @@
         <v>0</v>
       </c>
       <c r="G61" s="72">
-        <v>82.430750000000003</v>
+        <v>82.430749999999961</v>
       </c>
       <c r="H61" s="72">
         <v>210</v>
       </c>
       <c r="I61" s="76">
-        <v>0.39252738095238099</v>
+        <v>0.39252738095238077</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -66542,13 +66542,13 @@
         <v>0</v>
       </c>
       <c r="G62" s="72">
-        <v>53.134250000000002</v>
+        <v>53.134249999999973</v>
       </c>
       <c r="H62" s="72">
         <v>140</v>
       </c>
       <c r="I62" s="76">
-        <v>0.37953035714285716</v>
+        <v>0.37953035714285693</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -66600,13 +66600,13 @@
         <v>0</v>
       </c>
       <c r="G64" s="72">
-        <v>189.51925000000003</v>
+        <v>189.51924999999994</v>
       </c>
       <c r="H64" s="72">
         <v>210</v>
       </c>
       <c r="I64" s="76">
-        <v>0.90247261904761922</v>
+        <v>0.90247261904761877</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -66629,13 +66629,13 @@
         <v>0</v>
       </c>
       <c r="G65" s="72">
-        <v>137.3802499999999</v>
+        <v>137.38024999999993</v>
       </c>
       <c r="H65" s="72">
         <v>210</v>
       </c>
       <c r="I65" s="76">
-        <v>0.65419166666666617</v>
+        <v>0.65419166666666639</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -66716,13 +66716,13 @@
         <v>0</v>
       </c>
       <c r="G68" s="72">
-        <v>128.2217500000001</v>
+        <v>128.22175000000007</v>
       </c>
       <c r="H68" s="72">
         <v>210</v>
       </c>
       <c r="I68" s="76">
-        <v>0.61057976190476237</v>
+        <v>0.61057976190476226</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -66745,13 +66745,13 @@
         <v>0</v>
       </c>
       <c r="G69" s="72">
-        <v>166.96600000000004</v>
+        <v>166.96599999999998</v>
       </c>
       <c r="H69" s="72">
         <v>210</v>
       </c>
       <c r="I69" s="76">
-        <v>0.7950761904761906</v>
+        <v>0.79507619047619038</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -66774,13 +66774,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="72">
-        <v>210.05500000000009</v>
+        <v>210.05500000000001</v>
       </c>
       <c r="H70" s="72">
         <v>280</v>
       </c>
       <c r="I70" s="76">
-        <v>0.75019642857142887</v>
+        <v>0.75019642857142854</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -66803,13 +66803,13 @@
         <v>0</v>
       </c>
       <c r="G71" s="72">
-        <v>178.38499999999999</v>
+        <v>178.38499999999996</v>
       </c>
       <c r="H71" s="72">
         <v>280</v>
       </c>
       <c r="I71" s="76">
-        <v>0.63708928571428569</v>
+        <v>0.63708928571428558</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -66832,13 +66832,13 @@
         <v>0</v>
       </c>
       <c r="G72" s="72">
-        <v>45.395250000000004</v>
+        <v>45.395250000000011</v>
       </c>
       <c r="H72" s="72">
         <v>210</v>
       </c>
       <c r="I72" s="76">
-        <v>0.21616785714285716</v>
+        <v>0.21616785714285719</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -66861,13 +66861,13 @@
         <v>0</v>
       </c>
       <c r="G73" s="72">
-        <v>56.677999999999983</v>
+        <v>56.678000000000004</v>
       </c>
       <c r="H73" s="72">
         <v>210</v>
       </c>
       <c r="I73" s="76">
-        <v>0.26989523809523802</v>
+        <v>0.26989523809523813</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -67006,13 +67006,13 @@
         <v>0</v>
       </c>
       <c r="G78" s="72">
-        <v>78.06750000000001</v>
+        <v>78.067499999999995</v>
       </c>
       <c r="H78" s="72">
         <v>280</v>
       </c>
       <c r="I78" s="76">
-        <v>0.27881250000000002</v>
+        <v>0.27881249999999996</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -67035,7 +67035,7 @@
         <v>0</v>
       </c>
       <c r="G79" s="72">
-        <v>47.676249999999982</v>
+        <v>47.676249999999989</v>
       </c>
       <c r="H79" s="72">
         <v>280</v>
@@ -67064,13 +67064,13 @@
         <v>0</v>
       </c>
       <c r="G80" s="72">
-        <v>107.96125000000001</v>
+        <v>107.96124999999998</v>
       </c>
       <c r="H80" s="72">
         <v>280</v>
       </c>
       <c r="I80" s="76">
-        <v>0.38557589285714289</v>
+        <v>0.38557589285714278</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -67093,13 +67093,13 @@
         <v>0</v>
       </c>
       <c r="G81" s="72">
-        <v>57.689750000000004</v>
+        <v>57.689749999999968</v>
       </c>
       <c r="H81" s="72">
         <v>280</v>
       </c>
       <c r="I81" s="76">
-        <v>0.20603482142857144</v>
+        <v>0.20603482142857132</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -67151,13 +67151,13 @@
         <v>0</v>
       </c>
       <c r="G83" s="72">
-        <v>86.18675000000006</v>
+        <v>86.186750000000032</v>
       </c>
       <c r="H83" s="72">
         <v>280</v>
       </c>
       <c r="I83" s="76">
-        <v>0.30780982142857166</v>
+        <v>0.30780982142857155</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -67180,13 +67180,13 @@
         <v>0</v>
       </c>
       <c r="G84" s="72">
-        <v>168.25125</v>
+        <v>168.25124999999991</v>
       </c>
       <c r="H84" s="72">
         <v>280</v>
       </c>
       <c r="I84" s="76">
-        <v>0.60089732142857144</v>
+        <v>0.60089732142857111</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -67209,13 +67209,13 @@
         <v>0</v>
       </c>
       <c r="G85" s="72">
-        <v>40.552000000000028</v>
+        <v>40.552</v>
       </c>
       <c r="H85" s="72">
         <v>280</v>
       </c>
       <c r="I85" s="76">
-        <v>0.14482857142857153</v>
+        <v>0.14482857142857142</v>
       </c>
     </row>
   </sheetData>

--- a/Grid_5x5/Solutions/Solution_NDP_S012/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
+++ b/Grid_5x5/Solutions/Solution_NDP_S012/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
@@ -2661,7 +2661,7 @@
         <v>201</v>
       </c>
       <c r="C41" s="39">
-        <v>0.21280331923191101</v>
+        <v>0.21280331923191095</v>
       </c>
       <c r="D41" s="22" t="s">
         <v>42</v>
@@ -2682,7 +2682,7 @@
         <v>202</v>
       </c>
       <c r="C42" s="39">
-        <v>0.97244107142857106</v>
+        <v>0.97244107142857128</v>
       </c>
       <c r="D42" s="22" t="s">
         <v>42</v>
@@ -7843,7 +7843,7 @@
         <v>70</v>
       </c>
       <c r="K12" s="72">
-        <v>34.626999999999995</v>
+        <v>34.62700000000001</v>
       </c>
       <c r="L12" s="72">
         <v>0</v>
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="72">
-        <v>34.626999999999995</v>
+        <v>34.62700000000001</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -7934,13 +7934,13 @@
         <v>23.005000000000003</v>
       </c>
       <c r="L14" s="72">
-        <v>29.898999999999987</v>
+        <v>29.899000000000008</v>
       </c>
       <c r="M14" s="72">
         <v>73.736999999999995</v>
       </c>
       <c r="N14" s="72">
-        <v>52.903999999999989</v>
+        <v>52.904000000000011</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -7975,16 +7975,16 @@
         <v>70</v>
       </c>
       <c r="K15" s="72">
-        <v>29.12</v>
+        <v>29.119999999999997</v>
       </c>
       <c r="L15" s="72">
-        <v>35.333999999999989</v>
+        <v>35.33400000000001</v>
       </c>
       <c r="M15" s="72">
         <v>17.57</v>
       </c>
       <c r="N15" s="72">
-        <v>64.453999999999994</v>
+        <v>64.454000000000008</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -8022,13 +8022,13 @@
         <v>4.5169999999999995</v>
       </c>
       <c r="L16" s="72">
-        <v>19.115000000000002</v>
+        <v>19.114999999999998</v>
       </c>
       <c r="M16" s="72">
-        <v>45.338999999999999</v>
+        <v>45.339000000000013</v>
       </c>
       <c r="N16" s="72">
-        <v>23.632000000000001</v>
+        <v>23.631999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -8066,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="72">
-        <v>23.632000000000001</v>
+        <v>23.631999999999998</v>
       </c>
       <c r="N17" s="72">
         <v>0</v>
@@ -9399,16 +9399,16 @@
         <v>70</v>
       </c>
       <c r="K49" s="72">
-        <v>93.298999999999992</v>
+        <v>93.299000000000007</v>
       </c>
       <c r="L49" s="72">
-        <v>39.075000000000031</v>
+        <v>39.07499999999996</v>
       </c>
       <c r="M49" s="72">
         <v>5.7409999999999997</v>
       </c>
       <c r="N49" s="72">
-        <v>132.37400000000002</v>
+        <v>132.37399999999997</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -9446,13 +9446,13 @@
         <v>43.381</v>
       </c>
       <c r="L50" s="72">
-        <v>88.928000000000026</v>
+        <v>88.927999999999997</v>
       </c>
       <c r="M50" s="72">
-        <v>43.446000000000005</v>
+        <v>43.445999999999998</v>
       </c>
       <c r="N50" s="72">
-        <v>132.30900000000003</v>
+        <v>132.309</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -9540,7 +9540,7 @@
         <v>63.533000000000001</v>
       </c>
       <c r="N52" s="72">
-        <v>30.538</v>
+        <v>30.537999999999997</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -9578,7 +9578,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="72">
-        <v>30.538</v>
+        <v>30.537999999999997</v>
       </c>
       <c r="N53" s="72">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>31.950999999999997</v>
       </c>
       <c r="M85" s="72">
-        <v>7.63</v>
+        <v>7.6300000000000008</v>
       </c>
       <c r="N85" s="72">
         <v>40.046999999999997</v>
@@ -10958,13 +10958,13 @@
         <v>22.942</v>
       </c>
       <c r="L86" s="72">
-        <v>32.316999999999986</v>
+        <v>32.317</v>
       </c>
       <c r="M86" s="72">
         <v>7.73</v>
       </c>
       <c r="N86" s="72">
-        <v>55.258999999999986</v>
+        <v>55.259</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -11002,7 +11002,7 @@
         <v>0</v>
       </c>
       <c r="M87" s="72">
-        <v>55.258999999999986</v>
+        <v>55.259</v>
       </c>
       <c r="N87" s="72">
         <v>0</v>
@@ -12071,7 +12071,7 @@
         <v>70</v>
       </c>
       <c r="K113" s="72">
-        <v>29.681999999999999</v>
+        <v>29.682000000000002</v>
       </c>
       <c r="L113" s="72">
         <v>0</v>
@@ -12080,7 +12080,7 @@
         <v>0</v>
       </c>
       <c r="N113" s="72">
-        <v>29.681999999999999</v>
+        <v>29.682000000000002</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
@@ -12162,13 +12162,13 @@
         <v>2.5939999999999999</v>
       </c>
       <c r="L115" s="72">
-        <v>14.322000000000001</v>
+        <v>14.322000000000005</v>
       </c>
       <c r="M115" s="72">
         <v>6.51</v>
       </c>
       <c r="N115" s="72">
-        <v>16.916</v>
+        <v>16.916000000000004</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
@@ -12206,13 +12206,13 @@
         <v>2.282</v>
       </c>
       <c r="L116" s="72">
-        <v>11.232999999999999</v>
+        <v>11.233000000000001</v>
       </c>
       <c r="M116" s="72">
         <v>5.6829999999999998</v>
       </c>
       <c r="N116" s="72">
-        <v>13.514999999999999</v>
+        <v>13.515000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
@@ -12250,7 +12250,7 @@
         <v>0</v>
       </c>
       <c r="M117" s="72">
-        <v>13.514999999999999</v>
+        <v>13.515000000000001</v>
       </c>
       <c r="N117" s="72">
         <v>0</v>
@@ -13466,7 +13466,7 @@
         <v>0</v>
       </c>
       <c r="M146" s="72">
-        <v>176.10900000000001</v>
+        <v>176.10899999999998</v>
       </c>
       <c r="N146" s="72">
         <v>0</v>
@@ -13627,16 +13627,16 @@
         <v>70</v>
       </c>
       <c r="K150" s="72">
-        <v>59.371000000000009</v>
+        <v>59.371000000000002</v>
       </c>
       <c r="L150" s="72">
-        <v>193.27199999999999</v>
+        <v>193.27200000000002</v>
       </c>
       <c r="M150" s="72">
-        <v>60.725000000000001</v>
+        <v>60.725000000000016</v>
       </c>
       <c r="N150" s="72">
-        <v>252.643</v>
+        <v>252.64300000000003</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
@@ -13674,13 +13674,13 @@
         <v>43.564999999999998</v>
       </c>
       <c r="L151" s="72">
-        <v>98.391999999999996</v>
+        <v>98.392000000000024</v>
       </c>
       <c r="M151" s="72">
         <v>154.251</v>
       </c>
       <c r="N151" s="72">
-        <v>141.95699999999999</v>
+        <v>141.95700000000002</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
@@ -13715,16 +13715,16 @@
         <v>70</v>
       </c>
       <c r="K152" s="72">
-        <v>42.627000000000002</v>
+        <v>42.626999999999995</v>
       </c>
       <c r="L152" s="72">
-        <v>122.30999999999997</v>
+        <v>122.31000000000002</v>
       </c>
       <c r="M152" s="72">
-        <v>19.646999999999998</v>
+        <v>19.647000000000002</v>
       </c>
       <c r="N152" s="72">
-        <v>164.93699999999998</v>
+        <v>164.93700000000001</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
@@ -13762,13 +13762,13 @@
         <v>15.504999999999999</v>
       </c>
       <c r="L153" s="72">
-        <v>136.40500000000003</v>
+        <v>136.40499999999997</v>
       </c>
       <c r="M153" s="72">
-        <v>28.531999999999996</v>
+        <v>28.532</v>
       </c>
       <c r="N153" s="72">
-        <v>151.91000000000003</v>
+        <v>151.90999999999997</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
@@ -13806,13 +13806,13 @@
         <v>10.507000000000001</v>
       </c>
       <c r="L154" s="72">
-        <v>116.729</v>
+        <v>116.72899999999998</v>
       </c>
       <c r="M154" s="72">
-        <v>35.181000000000004</v>
+        <v>35.180999999999997</v>
       </c>
       <c r="N154" s="72">
-        <v>127.236</v>
+        <v>127.23599999999999</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
@@ -13850,7 +13850,7 @@
         <v>0</v>
       </c>
       <c r="M155" s="72">
-        <v>127.236</v>
+        <v>127.23599999999999</v>
       </c>
       <c r="N155" s="72">
         <v>0</v>
@@ -13926,13 +13926,13 @@
         <v>23.722000000000001</v>
       </c>
       <c r="L157" s="72">
-        <v>95.238999999999976</v>
+        <v>95.239000000000004</v>
       </c>
       <c r="M157" s="72">
         <v>5.8479999999999999</v>
       </c>
       <c r="N157" s="72">
-        <v>118.96099999999998</v>
+        <v>118.96100000000001</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
@@ -13967,16 +13967,16 @@
         <v>70</v>
       </c>
       <c r="K158" s="72">
-        <v>21.489000000000004</v>
+        <v>21.489000000000001</v>
       </c>
       <c r="L158" s="72">
-        <v>113.78900000000002</v>
+        <v>113.78899999999999</v>
       </c>
       <c r="M158" s="72">
         <v>5.1720000000000006</v>
       </c>
       <c r="N158" s="72">
-        <v>135.27800000000002</v>
+        <v>135.27799999999999</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
@@ -14011,16 +14011,16 @@
         <v>70</v>
       </c>
       <c r="K159" s="72">
-        <v>50.167000000000002</v>
+        <v>50.166999999999994</v>
       </c>
       <c r="L159" s="72">
-        <v>85.364999999999981</v>
+        <v>85.365000000000009</v>
       </c>
       <c r="M159" s="72">
         <v>49.913000000000011</v>
       </c>
       <c r="N159" s="72">
-        <v>135.53199999999998</v>
+        <v>135.53200000000001</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
@@ -14055,7 +14055,7 @@
         <v>70</v>
       </c>
       <c r="K160" s="72">
-        <v>42.678000000000004</v>
+        <v>42.677999999999997</v>
       </c>
       <c r="L160" s="72">
         <v>91.807999999999993</v>
@@ -14102,13 +14102,13 @@
         <v>42.948</v>
       </c>
       <c r="L161" s="72">
-        <v>111.51900000000001</v>
+        <v>111.51899999999998</v>
       </c>
       <c r="M161" s="72">
         <v>22.966999999999999</v>
       </c>
       <c r="N161" s="72">
-        <v>154.46700000000001</v>
+        <v>154.46699999999998</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
@@ -14193,7 +14193,7 @@
         <v>111.05500000000001</v>
       </c>
       <c r="M163" s="72">
-        <v>32.631999999999998</v>
+        <v>32.632000000000005</v>
       </c>
       <c r="N163" s="72">
         <v>120.44900000000001</v>
@@ -14263,7 +14263,7 @@
         <v>70</v>
       </c>
       <c r="K165" s="72">
-        <v>221.066</v>
+        <v>221.06600000000003</v>
       </c>
       <c r="L165" s="72">
         <v>0</v>
@@ -14272,7 +14272,7 @@
         <v>0</v>
       </c>
       <c r="N165" s="72">
-        <v>221.066</v>
+        <v>221.06600000000003</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
@@ -14307,7 +14307,7 @@
         <v>70</v>
       </c>
       <c r="K166" s="72">
-        <v>49.929999999999993</v>
+        <v>49.93</v>
       </c>
       <c r="L166" s="72">
         <v>202.67000000000002</v>
@@ -14351,16 +14351,16 @@
         <v>70</v>
       </c>
       <c r="K167" s="72">
-        <v>32.623999999999995</v>
+        <v>32.624000000000002</v>
       </c>
       <c r="L167" s="72">
-        <v>216.08799999999999</v>
+        <v>216.08800000000002</v>
       </c>
       <c r="M167" s="72">
         <v>36.512</v>
       </c>
       <c r="N167" s="72">
-        <v>248.71199999999999</v>
+        <v>248.71200000000002</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
@@ -17942,13 +17942,13 @@
         <v>11.312000000000001</v>
       </c>
       <c r="L251" s="72">
-        <v>24.388000000000002</v>
+        <v>24.387999999999995</v>
       </c>
       <c r="M251" s="72">
         <v>13.994</v>
       </c>
       <c r="N251" s="72">
-        <v>35.700000000000003</v>
+        <v>35.699999999999996</v>
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.25">
@@ -18030,13 +18030,13 @@
         <v>1.843</v>
       </c>
       <c r="L253" s="72">
-        <v>15.329000000000001</v>
+        <v>15.329000000000004</v>
       </c>
       <c r="M253" s="72">
         <v>11.359000000000002</v>
       </c>
       <c r="N253" s="72">
-        <v>17.172000000000001</v>
+        <v>17.172000000000004</v>
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.25">
@@ -18074,7 +18074,7 @@
         <v>0</v>
       </c>
       <c r="M254" s="72">
-        <v>17.172000000000001</v>
+        <v>17.172000000000004</v>
       </c>
       <c r="N254" s="72">
         <v>0</v>
@@ -18147,10 +18147,10 @@
         <v>70</v>
       </c>
       <c r="K256" s="72">
-        <v>43.670999999999999</v>
+        <v>43.671000000000006</v>
       </c>
       <c r="L256" s="72">
-        <v>32.196000000000005</v>
+        <v>32.195999999999998</v>
       </c>
       <c r="M256" s="72">
         <v>1.9910000000000001</v>
@@ -18194,13 +18194,13 @@
         <v>33.665000000000006</v>
       </c>
       <c r="L257" s="72">
-        <v>71.986999999999981</v>
+        <v>71.987000000000009</v>
       </c>
       <c r="M257" s="72">
-        <v>3.88</v>
+        <v>3.8800000000000003</v>
       </c>
       <c r="N257" s="72">
-        <v>105.65199999999999</v>
+        <v>105.65200000000002</v>
       </c>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.25">
@@ -18238,13 +18238,13 @@
         <v>28.134</v>
       </c>
       <c r="L258" s="72">
-        <v>74.913000000000011</v>
+        <v>74.912999999999997</v>
       </c>
       <c r="M258" s="72">
         <v>30.738999999999997</v>
       </c>
       <c r="N258" s="72">
-        <v>103.04700000000001</v>
+        <v>103.047</v>
       </c>
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.25">
@@ -18279,16 +18279,16 @@
         <v>70</v>
       </c>
       <c r="K259" s="72">
-        <v>29.540999999999997</v>
+        <v>29.541000000000004</v>
       </c>
       <c r="L259" s="72">
         <v>28.096000000000004</v>
       </c>
       <c r="M259" s="72">
-        <v>74.950999999999993</v>
+        <v>74.951000000000008</v>
       </c>
       <c r="N259" s="72">
-        <v>57.637</v>
+        <v>57.637000000000008</v>
       </c>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.25">
@@ -18323,13 +18323,13 @@
         <v>70</v>
       </c>
       <c r="K260" s="72">
-        <v>22.247999999999998</v>
+        <v>22.248000000000001</v>
       </c>
       <c r="L260" s="72">
-        <v>41.881000000000007</v>
+        <v>41.881</v>
       </c>
       <c r="M260" s="72">
-        <v>15.756</v>
+        <v>15.755999999999998</v>
       </c>
       <c r="N260" s="72">
         <v>64.129000000000005</v>
@@ -18367,16 +18367,16 @@
         <v>70</v>
       </c>
       <c r="K261" s="72">
-        <v>12.402999999999999</v>
+        <v>12.403</v>
       </c>
       <c r="L261" s="72">
-        <v>47.51</v>
+        <v>47.510000000000005</v>
       </c>
       <c r="M261" s="72">
         <v>16.619</v>
       </c>
       <c r="N261" s="72">
-        <v>59.912999999999997</v>
+        <v>59.913000000000004</v>
       </c>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.25">
@@ -18417,7 +18417,7 @@
         <v>33.221999999999994</v>
       </c>
       <c r="M262" s="72">
-        <v>26.690999999999999</v>
+        <v>26.691000000000003</v>
       </c>
       <c r="N262" s="72">
         <v>37.025999999999996</v>
@@ -18581,7 +18581,7 @@
         <v>56.503</v>
       </c>
       <c r="M266" s="72">
-        <v>3.8679999999999999</v>
+        <v>3.8680000000000003</v>
       </c>
       <c r="N266" s="72">
         <v>83.278999999999996</v>
@@ -18669,7 +18669,7 @@
         <v>26.321999999999996</v>
       </c>
       <c r="M268" s="72">
-        <v>56.29</v>
+        <v>56.289999999999992</v>
       </c>
       <c r="N268" s="72">
         <v>36.879999999999995</v>
@@ -22002,7 +22002,7 @@
         <v>0</v>
       </c>
       <c r="M346" s="72">
-        <v>44.052</v>
+        <v>44.052000000000007</v>
       </c>
       <c r="N346" s="72">
         <v>0</v>
@@ -22298,13 +22298,13 @@
         <v>61.730000000000004</v>
       </c>
       <c r="L353" s="72">
-        <v>54.685000000000016</v>
+        <v>54.685000000000002</v>
       </c>
       <c r="M353" s="72">
         <v>10.460999999999999</v>
       </c>
       <c r="N353" s="72">
-        <v>116.41500000000002</v>
+        <v>116.41500000000001</v>
       </c>
     </row>
     <row r="354" spans="1:14" x14ac:dyDescent="0.25">
@@ -22345,7 +22345,7 @@
         <v>75.328999999999994</v>
       </c>
       <c r="M354" s="72">
-        <v>41.086000000000006</v>
+        <v>41.085999999999999</v>
       </c>
       <c r="N354" s="72">
         <v>109.892</v>
@@ -22386,13 +22386,13 @@
         <v>47.622</v>
       </c>
       <c r="L355" s="72">
-        <v>38.030000000000015</v>
+        <v>38.03</v>
       </c>
       <c r="M355" s="72">
         <v>71.861999999999995</v>
       </c>
       <c r="N355" s="72">
-        <v>85.652000000000015</v>
+        <v>85.652000000000001</v>
       </c>
     </row>
     <row r="356" spans="1:14" x14ac:dyDescent="0.25">
@@ -22433,10 +22433,10 @@
         <v>25.677</v>
       </c>
       <c r="M356" s="72">
-        <v>59.975000000000001</v>
+        <v>59.974999999999994</v>
       </c>
       <c r="N356" s="72">
-        <v>29.071000000000002</v>
+        <v>29.070999999999998</v>
       </c>
     </row>
     <row r="357" spans="1:14" x14ac:dyDescent="0.25">
@@ -22474,7 +22474,7 @@
         <v>0</v>
       </c>
       <c r="M357" s="72">
-        <v>29.071000000000002</v>
+        <v>29.070999999999998</v>
       </c>
       <c r="N357" s="72">
         <v>0</v>
@@ -22547,10 +22547,10 @@
         <v>70</v>
       </c>
       <c r="K359" s="72">
-        <v>10.405999999999999</v>
+        <v>10.406000000000001</v>
       </c>
       <c r="L359" s="72">
-        <v>7.6190000000000033</v>
+        <v>7.6190000000000015</v>
       </c>
       <c r="M359" s="72">
         <v>1.9910000000000001</v>
@@ -22591,16 +22591,16 @@
         <v>70</v>
       </c>
       <c r="K360" s="72">
-        <v>8.7889999999999997</v>
+        <v>8.7890000000000015</v>
       </c>
       <c r="L360" s="72">
-        <v>14.142999999999999</v>
+        <v>14.143000000000001</v>
       </c>
       <c r="M360" s="72">
-        <v>3.8820000000000001</v>
+        <v>3.8820000000000006</v>
       </c>
       <c r="N360" s="72">
-        <v>22.931999999999999</v>
+        <v>22.932000000000002</v>
       </c>
     </row>
     <row r="361" spans="1:14" x14ac:dyDescent="0.25">
@@ -22638,13 +22638,13 @@
         <v>16.665999999999997</v>
       </c>
       <c r="L361" s="72">
-        <v>17.052999999999997</v>
+        <v>17.053000000000004</v>
       </c>
       <c r="M361" s="72">
-        <v>5.8790000000000004</v>
+        <v>5.8789999999999996</v>
       </c>
       <c r="N361" s="72">
-        <v>33.718999999999994</v>
+        <v>33.719000000000001</v>
       </c>
     </row>
     <row r="362" spans="1:14" x14ac:dyDescent="0.25">
@@ -22679,16 +22679,16 @@
         <v>70</v>
       </c>
       <c r="K362" s="72">
-        <v>17.931000000000001</v>
+        <v>17.930999999999997</v>
       </c>
       <c r="L362" s="72">
-        <v>26.911999999999995</v>
+        <v>26.912000000000006</v>
       </c>
       <c r="M362" s="72">
         <v>6.8070000000000004</v>
       </c>
       <c r="N362" s="72">
-        <v>44.842999999999996</v>
+        <v>44.843000000000004</v>
       </c>
     </row>
     <row r="363" spans="1:14" x14ac:dyDescent="0.25">
@@ -22726,13 +22726,13 @@
         <v>44.924999999999997</v>
       </c>
       <c r="L363" s="72">
-        <v>40.299999999999997</v>
+        <v>40.299999999999983</v>
       </c>
       <c r="M363" s="72">
         <v>4.5430000000000001</v>
       </c>
       <c r="N363" s="72">
-        <v>85.224999999999994</v>
+        <v>85.22499999999998</v>
       </c>
     </row>
     <row r="364" spans="1:14" x14ac:dyDescent="0.25">
@@ -22811,16 +22811,16 @@
         <v>70</v>
       </c>
       <c r="K365" s="72">
-        <v>39.873000000000005</v>
+        <v>39.872999999999998</v>
       </c>
       <c r="L365" s="72">
-        <v>107.46700000000003</v>
+        <v>107.46699999999998</v>
       </c>
       <c r="M365" s="72">
         <v>56.61</v>
       </c>
       <c r="N365" s="72">
-        <v>147.34000000000003</v>
+        <v>147.33999999999997</v>
       </c>
     </row>
     <row r="366" spans="1:14" x14ac:dyDescent="0.25">
@@ -23063,10 +23063,10 @@
         <v>70</v>
       </c>
       <c r="K371" s="72">
-        <v>9.2809999999999988</v>
+        <v>9.2810000000000006</v>
       </c>
       <c r="L371" s="72">
-        <v>14.100000000000001</v>
+        <v>14.1</v>
       </c>
       <c r="M371" s="72">
         <v>3.87</v>
@@ -23110,13 +23110,13 @@
         <v>13.363</v>
       </c>
       <c r="L372" s="72">
-        <v>16.968000000000004</v>
+        <v>16.968</v>
       </c>
       <c r="M372" s="72">
         <v>6.4129999999999994</v>
       </c>
       <c r="N372" s="72">
-        <v>30.331000000000003</v>
+        <v>30.331</v>
       </c>
     </row>
     <row r="373" spans="1:14" x14ac:dyDescent="0.25">
@@ -23151,13 +23151,13 @@
         <v>70</v>
       </c>
       <c r="K373" s="72">
-        <v>14.215999999999999</v>
+        <v>14.216000000000001</v>
       </c>
       <c r="L373" s="72">
         <v>23.595999999999997</v>
       </c>
       <c r="M373" s="72">
-        <v>6.7350000000000003</v>
+        <v>6.7349999999999994</v>
       </c>
       <c r="N373" s="72">
         <v>37.811999999999998</v>
@@ -27443,7 +27443,7 @@
         <v>70</v>
       </c>
       <c r="K473" s="72">
-        <v>8.6710000000000012</v>
+        <v>8.6709999999999994</v>
       </c>
       <c r="L473" s="72">
         <v>43.321999999999996</v>
@@ -27490,13 +27490,13 @@
         <v>11.469000000000001</v>
       </c>
       <c r="L474" s="72">
-        <v>39.631000000000007</v>
+        <v>39.631</v>
       </c>
       <c r="M474" s="72">
-        <v>12.361999999999998</v>
+        <v>12.362</v>
       </c>
       <c r="N474" s="72">
-        <v>51.100000000000009</v>
+        <v>51.1</v>
       </c>
     </row>
     <row r="475" spans="1:14" x14ac:dyDescent="0.25">
@@ -27531,16 +27531,16 @@
         <v>70</v>
       </c>
       <c r="K475" s="72">
-        <v>10.812999999999999</v>
+        <v>10.813000000000001</v>
       </c>
       <c r="L475" s="72">
-        <v>36.432999999999993</v>
+        <v>36.433</v>
       </c>
       <c r="M475" s="72">
-        <v>14.667</v>
+        <v>14.667000000000002</v>
       </c>
       <c r="N475" s="72">
-        <v>47.245999999999995</v>
+        <v>47.246000000000002</v>
       </c>
     </row>
     <row r="476" spans="1:14" x14ac:dyDescent="0.25">
@@ -27584,7 +27584,7 @@
         <v>8.8859999999999992</v>
       </c>
       <c r="N476" s="72">
-        <v>52.203000000000003</v>
+        <v>52.202999999999996</v>
       </c>
     </row>
     <row r="477" spans="1:14" x14ac:dyDescent="0.25">
@@ -27827,7 +27827,7 @@
         <v>70</v>
       </c>
       <c r="K482" s="72">
-        <v>43.546999999999997</v>
+        <v>43.547000000000004</v>
       </c>
       <c r="L482" s="72">
         <v>73.015000000000015</v>
@@ -27918,13 +27918,13 @@
         <v>8.6370000000000005</v>
       </c>
       <c r="L484" s="72">
-        <v>48.475000000000009</v>
+        <v>48.474999999999994</v>
       </c>
       <c r="M484" s="72">
         <v>28.552</v>
       </c>
       <c r="N484" s="72">
-        <v>57.112000000000009</v>
+        <v>57.111999999999995</v>
       </c>
     </row>
     <row r="485" spans="1:14" x14ac:dyDescent="0.25">
@@ -27962,13 +27962,13 @@
         <v>11.145</v>
       </c>
       <c r="L485" s="72">
-        <v>41.304000000000002</v>
+        <v>41.304000000000016</v>
       </c>
       <c r="M485" s="72">
         <v>15.808</v>
       </c>
       <c r="N485" s="72">
-        <v>52.449000000000005</v>
+        <v>52.449000000000012</v>
       </c>
     </row>
     <row r="486" spans="1:14" x14ac:dyDescent="0.25">
@@ -28003,10 +28003,10 @@
         <v>70</v>
       </c>
       <c r="K486" s="72">
-        <v>10.62</v>
+        <v>10.620000000000001</v>
       </c>
       <c r="L486" s="72">
-        <v>36.219000000000001</v>
+        <v>36.218999999999994</v>
       </c>
       <c r="M486" s="72">
         <v>16.23</v>
@@ -28167,7 +28167,7 @@
         <v>70</v>
       </c>
       <c r="K490" s="72">
-        <v>55.730000000000004</v>
+        <v>55.73</v>
       </c>
       <c r="L490" s="72">
         <v>0</v>
@@ -28176,7 +28176,7 @@
         <v>0</v>
       </c>
       <c r="N490" s="72">
-        <v>55.730000000000004</v>
+        <v>55.73</v>
       </c>
     </row>
     <row r="491" spans="1:14" x14ac:dyDescent="0.25">
@@ -28214,13 +28214,13 @@
         <v>115.73099999999999</v>
       </c>
       <c r="L491" s="72">
-        <v>49.726000000000028</v>
+        <v>49.725999999999999</v>
       </c>
       <c r="M491" s="72">
         <v>6.0039999999999996</v>
       </c>
       <c r="N491" s="72">
-        <v>165.45700000000002</v>
+        <v>165.45699999999999</v>
       </c>
     </row>
     <row r="492" spans="1:14" x14ac:dyDescent="0.25">
@@ -28255,16 +28255,16 @@
         <v>70</v>
       </c>
       <c r="K492" s="72">
-        <v>54.098000000000006</v>
+        <v>54.097999999999999</v>
       </c>
       <c r="L492" s="72">
-        <v>25.183999999999976</v>
+        <v>25.184000000000012</v>
       </c>
       <c r="M492" s="72">
         <v>140.273</v>
       </c>
       <c r="N492" s="72">
-        <v>79.281999999999982</v>
+        <v>79.282000000000011</v>
       </c>
     </row>
     <row r="493" spans="1:14" x14ac:dyDescent="0.25">
@@ -28299,16 +28299,16 @@
         <v>70</v>
       </c>
       <c r="K493" s="72">
-        <v>44.13</v>
+        <v>44.129999999999995</v>
       </c>
       <c r="L493" s="72">
-        <v>59.229999999999983</v>
+        <v>59.230000000000004</v>
       </c>
       <c r="M493" s="72">
         <v>20.052</v>
       </c>
       <c r="N493" s="72">
-        <v>103.35999999999999</v>
+        <v>103.36</v>
       </c>
     </row>
     <row r="494" spans="1:14" x14ac:dyDescent="0.25">
@@ -32465,7 +32465,7 @@
         <v>30.960000000000004</v>
       </c>
       <c r="M590" s="72">
-        <v>72.603999999999999</v>
+        <v>72.604000000000013</v>
       </c>
       <c r="N590" s="72">
         <v>37.742000000000004</v>
@@ -32626,13 +32626,13 @@
         <v>43.531999999999996</v>
       </c>
       <c r="L594" s="72">
-        <v>58.751000000000005</v>
+        <v>58.751000000000019</v>
       </c>
       <c r="M594" s="72">
         <v>9.2750000000000004</v>
       </c>
       <c r="N594" s="72">
-        <v>102.283</v>
+        <v>102.28300000000002</v>
       </c>
     </row>
     <row r="595" spans="1:14" x14ac:dyDescent="0.25">
@@ -32673,7 +32673,7 @@
         <v>42.221000000000004</v>
       </c>
       <c r="M595" s="72">
-        <v>60.061999999999998</v>
+        <v>60.062000000000005</v>
       </c>
       <c r="N595" s="72">
         <v>68.311000000000007</v>
@@ -32711,7 +32711,7 @@
         <v>70</v>
       </c>
       <c r="K596" s="72">
-        <v>22.797000000000001</v>
+        <v>22.796999999999997</v>
       </c>
       <c r="L596" s="72">
         <v>47.328000000000003</v>
@@ -32875,7 +32875,7 @@
         <v>70</v>
       </c>
       <c r="K600" s="72">
-        <v>80.122</v>
+        <v>80.122000000000014</v>
       </c>
       <c r="L600" s="72">
         <v>35.992000000000004</v>
@@ -32884,7 +32884,7 @@
         <v>6.6360000000000001</v>
       </c>
       <c r="N600" s="72">
-        <v>116.114</v>
+        <v>116.11400000000002</v>
       </c>
     </row>
     <row r="601" spans="1:14" x14ac:dyDescent="0.25">
@@ -32922,13 +32922,13 @@
         <v>56.275000000000006</v>
       </c>
       <c r="L601" s="72">
-        <v>68.570000000000007</v>
+        <v>68.569999999999993</v>
       </c>
       <c r="M601" s="72">
-        <v>47.544000000000011</v>
+        <v>47.543999999999997</v>
       </c>
       <c r="N601" s="72">
-        <v>124.84500000000001</v>
+        <v>124.845</v>
       </c>
     </row>
     <row r="602" spans="1:14" x14ac:dyDescent="0.25">
@@ -32966,13 +32966,13 @@
         <v>31.884</v>
       </c>
       <c r="L602" s="72">
-        <v>43.147999999999982</v>
+        <v>43.147999999999996</v>
       </c>
       <c r="M602" s="72">
         <v>81.697000000000003</v>
       </c>
       <c r="N602" s="72">
-        <v>75.031999999999982</v>
+        <v>75.031999999999996</v>
       </c>
     </row>
     <row r="603" spans="1:14" x14ac:dyDescent="0.25">
@@ -33007,16 +33007,16 @@
         <v>70</v>
       </c>
       <c r="K603" s="72">
-        <v>37.823000000000008</v>
+        <v>37.823</v>
       </c>
       <c r="L603" s="72">
-        <v>58.444999999999979</v>
+        <v>58.445</v>
       </c>
       <c r="M603" s="72">
         <v>16.587</v>
       </c>
       <c r="N603" s="72">
-        <v>96.267999999999986</v>
+        <v>96.268000000000001</v>
       </c>
     </row>
     <row r="604" spans="1:14" x14ac:dyDescent="0.25">
@@ -35671,10 +35671,10 @@
         <v>70</v>
       </c>
       <c r="K666" s="72">
-        <v>50.141999999999996</v>
+        <v>50.142000000000003</v>
       </c>
       <c r="L666" s="72">
-        <v>52.492999999999995</v>
+        <v>52.492999999999988</v>
       </c>
       <c r="M666" s="72">
         <v>21.262999999999998</v>
@@ -35838,13 +35838,13 @@
         <v>101.143</v>
       </c>
       <c r="L670" s="72">
-        <v>42.233000000000033</v>
+        <v>42.233000000000004</v>
       </c>
       <c r="M670" s="72">
         <v>6.944</v>
       </c>
       <c r="N670" s="72">
-        <v>143.37600000000003</v>
+        <v>143.376</v>
       </c>
     </row>
     <row r="671" spans="1:14" x14ac:dyDescent="0.25">
@@ -35879,16 +35879,16 @@
         <v>70</v>
       </c>
       <c r="K671" s="72">
-        <v>38.418000000000006</v>
+        <v>38.417999999999999</v>
       </c>
       <c r="L671" s="72">
-        <v>79.894999999999982</v>
+        <v>79.89500000000001</v>
       </c>
       <c r="M671" s="72">
-        <v>63.481000000000002</v>
+        <v>63.481000000000009</v>
       </c>
       <c r="N671" s="72">
-        <v>118.31299999999999</v>
+        <v>118.313</v>
       </c>
     </row>
     <row r="672" spans="1:14" x14ac:dyDescent="0.25">
@@ -35923,13 +35923,13 @@
         <v>70</v>
       </c>
       <c r="K672" s="72">
-        <v>26.669</v>
+        <v>26.669000000000004</v>
       </c>
       <c r="L672" s="72">
-        <v>39.483999999999995</v>
+        <v>39.483999999999988</v>
       </c>
       <c r="M672" s="72">
-        <v>78.828999999999994</v>
+        <v>78.829000000000008</v>
       </c>
       <c r="N672" s="72">
         <v>66.152999999999992</v>
@@ -35967,16 +35967,16 @@
         <v>70</v>
       </c>
       <c r="K673" s="72">
-        <v>33.609000000000009</v>
+        <v>33.609000000000002</v>
       </c>
       <c r="L673" s="72">
-        <v>53.663999999999987</v>
+        <v>53.664000000000009</v>
       </c>
       <c r="M673" s="72">
         <v>12.489000000000001</v>
       </c>
       <c r="N673" s="72">
-        <v>87.272999999999996</v>
+        <v>87.27300000000001</v>
       </c>
     </row>
     <row r="674" spans="1:14" x14ac:dyDescent="0.25">
@@ -36014,13 +36014,13 @@
         <v>4.6379999999999999</v>
       </c>
       <c r="L674" s="72">
-        <v>24.122000000000007</v>
+        <v>24.122</v>
       </c>
       <c r="M674" s="72">
-        <v>63.150999999999996</v>
+        <v>63.151000000000003</v>
       </c>
       <c r="N674" s="72">
-        <v>28.760000000000005</v>
+        <v>28.76</v>
       </c>
     </row>
     <row r="675" spans="1:14" x14ac:dyDescent="0.25">
@@ -36058,7 +36058,7 @@
         <v>0</v>
       </c>
       <c r="M675" s="72">
-        <v>28.760000000000005</v>
+        <v>28.76</v>
       </c>
       <c r="N675" s="72">
         <v>0</v>
@@ -36131,7 +36131,7 @@
         <v>70</v>
       </c>
       <c r="K677" s="72">
-        <v>82.093999999999994</v>
+        <v>82.094000000000008</v>
       </c>
       <c r="L677" s="72">
         <v>34.442999999999998</v>
@@ -36140,7 +36140,7 @@
         <v>4.1059999999999999</v>
       </c>
       <c r="N677" s="72">
-        <v>116.53699999999999</v>
+        <v>116.53700000000001</v>
       </c>
     </row>
     <row r="678" spans="1:14" x14ac:dyDescent="0.25">
@@ -36222,13 +36222,13 @@
         <v>24.98</v>
       </c>
       <c r="L679" s="72">
-        <v>43.850999999999985</v>
+        <v>43.850999999999999</v>
       </c>
       <c r="M679" s="72">
         <v>59.457000000000001</v>
       </c>
       <c r="N679" s="72">
-        <v>68.830999999999989</v>
+        <v>68.831000000000003</v>
       </c>
     </row>
     <row r="680" spans="1:14" x14ac:dyDescent="0.25">
@@ -38798,13 +38798,13 @@
         <v>70.228999999999985</v>
       </c>
       <c r="L740" s="72">
-        <v>29.082000000000022</v>
+        <v>29.081999999999994</v>
       </c>
       <c r="M740" s="72">
         <v>4.0510000000000002</v>
       </c>
       <c r="N740" s="72">
-        <v>99.311000000000007</v>
+        <v>99.310999999999979</v>
       </c>
     </row>
     <row r="741" spans="1:14" x14ac:dyDescent="0.25">
@@ -38839,16 +38839,16 @@
         <v>70</v>
       </c>
       <c r="K741" s="72">
-        <v>39.142999999999994</v>
+        <v>39.143000000000008</v>
       </c>
       <c r="L741" s="72">
-        <v>72.069000000000017</v>
+        <v>72.068999999999988</v>
       </c>
       <c r="M741" s="72">
-        <v>27.241999999999997</v>
+        <v>27.242000000000001</v>
       </c>
       <c r="N741" s="72">
-        <v>111.21200000000002</v>
+        <v>111.212</v>
       </c>
     </row>
     <row r="742" spans="1:14" x14ac:dyDescent="0.25">
@@ -38927,10 +38927,10 @@
         <v>70</v>
       </c>
       <c r="K743" s="72">
-        <v>29.12</v>
+        <v>29.119999999999997</v>
       </c>
       <c r="L743" s="72">
-        <v>54.78</v>
+        <v>54.780000000000008</v>
       </c>
       <c r="M743" s="72">
         <v>16.064999999999998</v>
@@ -38977,7 +38977,7 @@
         <v>24.805000000000003</v>
       </c>
       <c r="M744" s="72">
-        <v>59.094999999999999</v>
+        <v>59.095000000000013</v>
       </c>
       <c r="N744" s="72">
         <v>29.322000000000003</v>
@@ -40366,13 +40366,13 @@
         <v>26.823999999999998</v>
       </c>
       <c r="L777" s="72">
-        <v>64.558999999999997</v>
+        <v>64.559000000000012</v>
       </c>
       <c r="M777" s="72">
         <v>80.432000000000002</v>
       </c>
       <c r="N777" s="72">
-        <v>91.382999999999996</v>
+        <v>91.38300000000001</v>
       </c>
     </row>
     <row r="778" spans="1:14" x14ac:dyDescent="0.25">
@@ -40454,13 +40454,13 @@
         <v>3.8129999999999997</v>
       </c>
       <c r="L779" s="72">
-        <v>21.285000000000004</v>
+        <v>21.285</v>
       </c>
       <c r="M779" s="72">
         <v>50.762</v>
       </c>
       <c r="N779" s="72">
-        <v>25.098000000000003</v>
+        <v>25.097999999999999</v>
       </c>
     </row>
     <row r="780" spans="1:14" x14ac:dyDescent="0.25">
@@ -40498,7 +40498,7 @@
         <v>0</v>
       </c>
       <c r="M780" s="72">
-        <v>25.098000000000003</v>
+        <v>25.097999999999999</v>
       </c>
       <c r="N780" s="72">
         <v>0</v>
@@ -40615,16 +40615,16 @@
         <v>70</v>
       </c>
       <c r="K783" s="72">
-        <v>32.805999999999997</v>
+        <v>32.806000000000004</v>
       </c>
       <c r="L783" s="72">
-        <v>99.167999999999992</v>
+        <v>99.168000000000035</v>
       </c>
       <c r="M783" s="72">
-        <v>59.612999999999992</v>
+        <v>59.613</v>
       </c>
       <c r="N783" s="72">
-        <v>131.97399999999999</v>
+        <v>131.97400000000005</v>
       </c>
     </row>
     <row r="784" spans="1:14" x14ac:dyDescent="0.25">
@@ -42614,13 +42614,13 @@
         <v>28.019000000000002</v>
       </c>
       <c r="L830" s="72">
-        <v>51.090999999999994</v>
+        <v>51.091000000000008</v>
       </c>
       <c r="M830" s="72">
-        <v>15.742000000000001</v>
+        <v>15.741999999999999</v>
       </c>
       <c r="N830" s="72">
-        <v>79.11</v>
+        <v>79.110000000000014</v>
       </c>
     </row>
     <row r="831" spans="1:14" x14ac:dyDescent="0.25">
@@ -42658,13 +42658,13 @@
         <v>27.393999999999998</v>
       </c>
       <c r="L831" s="72">
-        <v>68.039999999999992</v>
+        <v>68.04000000000002</v>
       </c>
       <c r="M831" s="72">
         <v>11.07</v>
       </c>
       <c r="N831" s="72">
-        <v>95.433999999999997</v>
+        <v>95.434000000000026</v>
       </c>
     </row>
     <row r="832" spans="1:14" x14ac:dyDescent="0.25">
@@ -42705,7 +42705,7 @@
         <v>42.881</v>
       </c>
       <c r="M832" s="72">
-        <v>52.552999999999997</v>
+        <v>52.553000000000011</v>
       </c>
       <c r="N832" s="72">
         <v>47.637</v>
@@ -42866,13 +42866,13 @@
         <v>34.897999999999996</v>
       </c>
       <c r="L836" s="72">
-        <v>57.397000000000006</v>
+        <v>57.396999999999991</v>
       </c>
       <c r="M836" s="72">
-        <v>10.093999999999999</v>
+        <v>10.094000000000001</v>
       </c>
       <c r="N836" s="72">
-        <v>92.295000000000002</v>
+        <v>92.294999999999987</v>
       </c>
     </row>
     <row r="837" spans="1:14" x14ac:dyDescent="0.25">
@@ -42913,7 +42913,7 @@
         <v>61.211000000000013</v>
       </c>
       <c r="M837" s="72">
-        <v>31.084</v>
+        <v>31.084000000000003</v>
       </c>
       <c r="N837" s="72">
         <v>88.818000000000012</v>
@@ -42951,16 +42951,16 @@
         <v>70</v>
       </c>
       <c r="K838" s="72">
-        <v>25.667999999999999</v>
+        <v>25.668000000000003</v>
       </c>
       <c r="L838" s="72">
-        <v>29.19700000000001</v>
+        <v>29.196999999999992</v>
       </c>
       <c r="M838" s="72">
-        <v>59.621000000000009</v>
+        <v>59.620999999999995</v>
       </c>
       <c r="N838" s="72">
-        <v>54.865000000000009</v>
+        <v>54.864999999999995</v>
       </c>
     </row>
     <row r="839" spans="1:14" x14ac:dyDescent="0.25">
@@ -43001,7 +43001,7 @@
         <v>39.004999999999995</v>
       </c>
       <c r="M839" s="72">
-        <v>15.860000000000001</v>
+        <v>15.86</v>
       </c>
       <c r="N839" s="72">
         <v>62.364999999999995</v>
@@ -43039,10 +43039,10 @@
         <v>70</v>
       </c>
       <c r="K840" s="72">
-        <v>31.424000000000003</v>
+        <v>31.423999999999999</v>
       </c>
       <c r="L840" s="72">
-        <v>45.694999999999993</v>
+        <v>45.695</v>
       </c>
       <c r="M840" s="72">
         <v>16.670000000000002</v>
@@ -43203,16 +43203,16 @@
         <v>70</v>
       </c>
       <c r="K844" s="72">
-        <v>33.843000000000004</v>
+        <v>33.842999999999996</v>
       </c>
       <c r="L844" s="72">
-        <v>22.153000000000006</v>
+        <v>22.152999999999999</v>
       </c>
       <c r="M844" s="72">
         <v>2.3449999999999998</v>
       </c>
       <c r="N844" s="72">
-        <v>55.996000000000009</v>
+        <v>55.995999999999995</v>
       </c>
     </row>
     <row r="845" spans="1:14" x14ac:dyDescent="0.25">
@@ -43250,13 +43250,13 @@
         <v>28.265999999999998</v>
       </c>
       <c r="L845" s="72">
-        <v>46.524000000000008</v>
+        <v>46.524000000000022</v>
       </c>
       <c r="M845" s="72">
-        <v>9.4719999999999995</v>
+        <v>9.4720000000000013</v>
       </c>
       <c r="N845" s="72">
-        <v>74.790000000000006</v>
+        <v>74.79000000000002</v>
       </c>
     </row>
     <row r="846" spans="1:14" x14ac:dyDescent="0.25">
@@ -43291,10 +43291,10 @@
         <v>70</v>
       </c>
       <c r="K846" s="72">
-        <v>32.986999999999995</v>
+        <v>32.987000000000002</v>
       </c>
       <c r="L846" s="72">
-        <v>52.681000000000012</v>
+        <v>52.681000000000004</v>
       </c>
       <c r="M846" s="72">
         <v>22.109000000000002</v>
@@ -43335,13 +43335,13 @@
         <v>70</v>
       </c>
       <c r="K847" s="72">
-        <v>20.077000000000002</v>
+        <v>20.077000000000005</v>
       </c>
       <c r="L847" s="72">
-        <v>38.204999999999998</v>
+        <v>38.204999999999991</v>
       </c>
       <c r="M847" s="72">
-        <v>47.463000000000008</v>
+        <v>47.463000000000001</v>
       </c>
       <c r="N847" s="72">
         <v>58.281999999999996</v>
@@ -46747,10 +46747,10 @@
         <v>70</v>
       </c>
       <c r="K927" s="72">
-        <v>36.335999999999999</v>
+        <v>36.336000000000006</v>
       </c>
       <c r="L927" s="72">
-        <v>85.219000000000008</v>
+        <v>85.218999999999994</v>
       </c>
       <c r="M927" s="72">
         <v>25.896999999999998</v>
@@ -46838,13 +46838,13 @@
         <v>11.59</v>
       </c>
       <c r="L929" s="72">
-        <v>55.179000000000002</v>
+        <v>55.178999999999988</v>
       </c>
       <c r="M929" s="72">
         <v>11.553000000000001</v>
       </c>
       <c r="N929" s="72">
-        <v>66.769000000000005</v>
+        <v>66.768999999999991</v>
       </c>
     </row>
     <row r="930" spans="1:14" x14ac:dyDescent="0.25">
@@ -46885,7 +46885,7 @@
         <v>37.598999999999997</v>
       </c>
       <c r="M930" s="72">
-        <v>29.169999999999998</v>
+        <v>29.17</v>
       </c>
       <c r="N930" s="72">
         <v>40.747</v>
@@ -46926,13 +46926,13 @@
         <v>2.1929999999999996</v>
       </c>
       <c r="L931" s="72">
-        <v>16.186999999999998</v>
+        <v>16.187000000000005</v>
       </c>
       <c r="M931" s="72">
-        <v>24.560000000000002</v>
+        <v>24.56</v>
       </c>
       <c r="N931" s="72">
-        <v>18.38</v>
+        <v>18.380000000000003</v>
       </c>
     </row>
     <row r="932" spans="1:14" x14ac:dyDescent="0.25">
@@ -46970,7 +46970,7 @@
         <v>0</v>
       </c>
       <c r="M932" s="72">
-        <v>18.38</v>
+        <v>18.380000000000003</v>
       </c>
       <c r="N932" s="72">
         <v>0</v>
@@ -47043,10 +47043,10 @@
         <v>70</v>
       </c>
       <c r="K934" s="72">
-        <v>62.257999999999996</v>
+        <v>62.25800000000001</v>
       </c>
       <c r="L934" s="72">
-        <v>49.965999999999994</v>
+        <v>49.96599999999998</v>
       </c>
       <c r="M934" s="72">
         <v>4.4630000000000001</v>
@@ -47134,13 +47134,13 @@
         <v>26.868000000000002</v>
       </c>
       <c r="L936" s="72">
-        <v>73.301999999999992</v>
+        <v>73.302000000000021</v>
       </c>
       <c r="M936" s="72">
         <v>36.004000000000005</v>
       </c>
       <c r="N936" s="72">
-        <v>100.16999999999999</v>
+        <v>100.17000000000002</v>
       </c>
     </row>
     <row r="937" spans="1:14" x14ac:dyDescent="0.25">
@@ -47175,16 +47175,16 @@
         <v>70</v>
       </c>
       <c r="K937" s="72">
-        <v>18.137000000000004</v>
+        <v>18.137</v>
       </c>
       <c r="L937" s="72">
-        <v>44.020999999999987</v>
+        <v>44.021000000000001</v>
       </c>
       <c r="M937" s="72">
         <v>56.149000000000001</v>
       </c>
       <c r="N937" s="72">
-        <v>62.157999999999994</v>
+        <v>62.158000000000001</v>
       </c>
     </row>
     <row r="938" spans="1:14" x14ac:dyDescent="0.25">
@@ -47219,16 +47219,16 @@
         <v>70</v>
       </c>
       <c r="K938" s="72">
-        <v>11.363999999999999</v>
+        <v>11.364000000000001</v>
       </c>
       <c r="L938" s="72">
         <v>46.061999999999998</v>
       </c>
       <c r="M938" s="72">
-        <v>16.096</v>
+        <v>16.095999999999997</v>
       </c>
       <c r="N938" s="72">
-        <v>57.425999999999995</v>
+        <v>57.426000000000002</v>
       </c>
     </row>
     <row r="939" spans="1:14" x14ac:dyDescent="0.25">
@@ -47266,13 +47266,13 @@
         <v>3.1040000000000001</v>
       </c>
       <c r="L939" s="72">
-        <v>31.270000000000003</v>
+        <v>31.269999999999996</v>
       </c>
       <c r="M939" s="72">
         <v>26.155999999999999</v>
       </c>
       <c r="N939" s="72">
-        <v>34.374000000000002</v>
+        <v>34.373999999999995</v>
       </c>
     </row>
     <row r="940" spans="1:14" x14ac:dyDescent="0.25">
@@ -47310,13 +47310,13 @@
         <v>2.1349999999999998</v>
       </c>
       <c r="L940" s="72">
-        <v>13.176</v>
+        <v>13.176000000000002</v>
       </c>
       <c r="M940" s="72">
-        <v>21.198</v>
+        <v>21.197999999999997</v>
       </c>
       <c r="N940" s="72">
-        <v>15.311</v>
+        <v>15.311000000000002</v>
       </c>
     </row>
     <row r="941" spans="1:14" x14ac:dyDescent="0.25">
@@ -47383,7 +47383,7 @@
         <v>70</v>
       </c>
       <c r="K942" s="72">
-        <v>46.114000000000004</v>
+        <v>46.113999999999997</v>
       </c>
       <c r="L942" s="72">
         <v>0</v>
@@ -47392,7 +47392,7 @@
         <v>0</v>
       </c>
       <c r="N942" s="72">
-        <v>46.114000000000004</v>
+        <v>46.113999999999997</v>
       </c>
     </row>
     <row r="943" spans="1:14" x14ac:dyDescent="0.25">
@@ -47430,13 +47430,13 @@
         <v>51.747</v>
       </c>
       <c r="L943" s="72">
-        <v>41.677999999999997</v>
+        <v>41.678000000000011</v>
       </c>
       <c r="M943" s="72">
         <v>4.4359999999999999</v>
       </c>
       <c r="N943" s="72">
-        <v>93.424999999999997</v>
+        <v>93.425000000000011</v>
       </c>
     </row>
     <row r="944" spans="1:14" x14ac:dyDescent="0.25">
@@ -47471,7 +47471,7 @@
         <v>70</v>
       </c>
       <c r="K944" s="72">
-        <v>29.226999999999997</v>
+        <v>29.227000000000004</v>
       </c>
       <c r="L944" s="72">
         <v>78.069000000000017</v>
@@ -47480,7 +47480,7 @@
         <v>15.355999999999998</v>
       </c>
       <c r="N944" s="72">
-        <v>107.29600000000001</v>
+        <v>107.29600000000002</v>
       </c>
     </row>
     <row r="945" spans="1:14" x14ac:dyDescent="0.25">
@@ -50754,13 +50754,13 @@
         <v>8.0960000000000001</v>
       </c>
       <c r="L1021" s="72">
-        <v>31.949999999999992</v>
+        <v>31.95</v>
       </c>
       <c r="M1021" s="72">
-        <v>7.63</v>
+        <v>7.6300000000000008</v>
       </c>
       <c r="N1021" s="72">
-        <v>40.045999999999992</v>
+        <v>40.045999999999999</v>
       </c>
     </row>
     <row r="1022" spans="1:14" x14ac:dyDescent="0.25">
@@ -50795,16 +50795,16 @@
         <v>70</v>
       </c>
       <c r="K1022" s="72">
-        <v>22.941000000000003</v>
+        <v>22.940999999999999</v>
       </c>
       <c r="L1022" s="72">
-        <v>32.315999999999988</v>
+        <v>32.316000000000003</v>
       </c>
       <c r="M1022" s="72">
         <v>7.73</v>
       </c>
       <c r="N1022" s="72">
-        <v>55.256999999999991</v>
+        <v>55.256999999999998</v>
       </c>
     </row>
     <row r="1023" spans="1:14" x14ac:dyDescent="0.25">
@@ -50842,7 +50842,7 @@
         <v>0</v>
       </c>
       <c r="M1023" s="72">
-        <v>55.256999999999991</v>
+        <v>55.256999999999998</v>
       </c>
       <c r="N1023" s="72">
         <v>0</v>
@@ -51747,10 +51747,10 @@
         <v>70</v>
       </c>
       <c r="K1045" s="72">
-        <v>3.6149999999999998</v>
+        <v>3.6150000000000002</v>
       </c>
       <c r="L1045" s="72">
-        <v>2.3080000000000003</v>
+        <v>2.3079999999999998</v>
       </c>
       <c r="M1045" s="72">
         <v>2.819</v>
@@ -53171,13 +53171,13 @@
         <v>70</v>
       </c>
       <c r="K1079" s="72">
-        <v>21.581</v>
+        <v>21.581000000000003</v>
       </c>
       <c r="L1079" s="72">
         <v>35.551000000000002</v>
       </c>
       <c r="M1079" s="72">
-        <v>31.572999999999997</v>
+        <v>31.573</v>
       </c>
       <c r="N1079" s="72">
         <v>57.132000000000005</v>
@@ -53218,13 +53218,13 @@
         <v>44.085000000000008</v>
       </c>
       <c r="L1080" s="72">
-        <v>39.790999999999968</v>
+        <v>39.790999999999997</v>
       </c>
       <c r="M1080" s="72">
         <v>17.341000000000001</v>
       </c>
       <c r="N1080" s="72">
-        <v>83.875999999999976</v>
+        <v>83.876000000000005</v>
       </c>
     </row>
     <row r="1081" spans="1:14" x14ac:dyDescent="0.25">
@@ -53259,16 +53259,16 @@
         <v>70</v>
       </c>
       <c r="K1081" s="72">
-        <v>103.44500000000001</v>
+        <v>103.44500000000002</v>
       </c>
       <c r="L1081" s="72">
-        <v>69.533000000000058</v>
+        <v>69.532999999999987</v>
       </c>
       <c r="M1081" s="72">
         <v>14.343</v>
       </c>
       <c r="N1081" s="72">
-        <v>172.97800000000007</v>
+        <v>172.97800000000001</v>
       </c>
     </row>
     <row r="1082" spans="1:14" x14ac:dyDescent="0.25">
@@ -53306,13 +53306,13 @@
         <v>43.618000000000009</v>
       </c>
       <c r="L1082" s="72">
-        <v>84.902999999999977</v>
+        <v>84.903000000000006</v>
       </c>
       <c r="M1082" s="72">
-        <v>88.075000000000003</v>
+        <v>88.074999999999989</v>
       </c>
       <c r="N1082" s="72">
-        <v>128.52099999999999</v>
+        <v>128.52100000000002</v>
       </c>
     </row>
     <row r="1083" spans="1:14" x14ac:dyDescent="0.25">
@@ -53350,13 +53350,13 @@
         <v>5.6690000000000005</v>
       </c>
       <c r="L1083" s="72">
-        <v>38.032000000000011</v>
+        <v>38.031999999999996</v>
       </c>
       <c r="M1083" s="72">
         <v>90.489000000000004</v>
       </c>
       <c r="N1083" s="72">
-        <v>43.701000000000008</v>
+        <v>43.700999999999993</v>
       </c>
     </row>
     <row r="1084" spans="1:14" x14ac:dyDescent="0.25">
@@ -53394,7 +53394,7 @@
         <v>0</v>
       </c>
       <c r="M1084" s="72">
-        <v>43.701000000000008</v>
+        <v>43.700999999999993</v>
       </c>
       <c r="N1084" s="72">
         <v>0</v>
@@ -53517,7 +53517,7 @@
         <v>48.451999999999998</v>
       </c>
       <c r="M1087" s="72">
-        <v>24.363</v>
+        <v>24.363000000000003</v>
       </c>
       <c r="N1087" s="72">
         <v>99.176000000000002</v>
@@ -53558,13 +53558,13 @@
         <v>45.445</v>
       </c>
       <c r="L1088" s="72">
-        <v>51.028000000000013</v>
+        <v>51.027999999999999</v>
       </c>
       <c r="M1088" s="72">
-        <v>48.148000000000003</v>
+        <v>48.147999999999996</v>
       </c>
       <c r="N1088" s="72">
-        <v>96.473000000000013</v>
+        <v>96.472999999999999</v>
       </c>
     </row>
     <row r="1089" spans="1:14" x14ac:dyDescent="0.25">
@@ -56006,13 +56006,13 @@
         <v>77.980999999999995</v>
       </c>
       <c r="L1145" s="72">
-        <v>74.541999999999973</v>
+        <v>74.542000000000002</v>
       </c>
       <c r="M1145" s="72">
         <v>13.827999999999999</v>
       </c>
       <c r="N1145" s="72">
-        <v>152.52299999999997</v>
+        <v>152.523</v>
       </c>
     </row>
     <row r="1146" spans="1:14" x14ac:dyDescent="0.25">
@@ -56047,10 +56047,10 @@
         <v>70</v>
       </c>
       <c r="K1146" s="72">
-        <v>93.991000000000014</v>
+        <v>93.991</v>
       </c>
       <c r="L1146" s="72">
-        <v>120.95899999999997</v>
+        <v>120.95899999999999</v>
       </c>
       <c r="M1146" s="72">
         <v>31.564</v>
@@ -56091,10 +56091,10 @@
         <v>70</v>
       </c>
       <c r="K1147" s="72">
-        <v>35.434000000000005</v>
+        <v>35.433999999999997</v>
       </c>
       <c r="L1147" s="72">
-        <v>44.389000000000003</v>
+        <v>44.38900000000001</v>
       </c>
       <c r="M1147" s="72">
         <v>170.56099999999998</v>
@@ -56138,13 +56138,13 @@
         <v>38.561999999999998</v>
       </c>
       <c r="L1148" s="72">
-        <v>60.150999999999996</v>
+        <v>60.15100000000001</v>
       </c>
       <c r="M1148" s="72">
-        <v>19.672000000000001</v>
+        <v>19.671999999999997</v>
       </c>
       <c r="N1148" s="72">
-        <v>98.712999999999994</v>
+        <v>98.713000000000008</v>
       </c>
     </row>
     <row r="1149" spans="1:14" x14ac:dyDescent="0.25">
@@ -56299,10 +56299,10 @@
         <v>70</v>
       </c>
       <c r="K1152" s="72">
-        <v>38.644000000000005</v>
+        <v>38.643999999999998</v>
       </c>
       <c r="L1152" s="72">
-        <v>16.373999999999995</v>
+        <v>16.374000000000002</v>
       </c>
       <c r="M1152" s="72">
         <v>5.2509999999999994</v>
@@ -56349,7 +56349,7 @@
         <v>40.121000000000002</v>
       </c>
       <c r="M1153" s="72">
-        <v>14.897</v>
+        <v>14.897000000000002</v>
       </c>
       <c r="N1153" s="72">
         <v>68.271000000000001</v>
@@ -56390,13 +56390,13 @@
         <v>37.114000000000004</v>
       </c>
       <c r="L1154" s="72">
-        <v>35.637999999999991</v>
+        <v>35.637999999999977</v>
       </c>
       <c r="M1154" s="72">
-        <v>32.632999999999996</v>
+        <v>32.633000000000003</v>
       </c>
       <c r="N1154" s="72">
-        <v>72.751999999999995</v>
+        <v>72.751999999999981</v>
       </c>
     </row>
     <row r="1155" spans="1:14" x14ac:dyDescent="0.25">
@@ -56434,13 +56434,13 @@
         <v>21.341000000000001</v>
       </c>
       <c r="L1155" s="72">
-        <v>55.911999999999985</v>
+        <v>55.911999999999999</v>
       </c>
       <c r="M1155" s="72">
         <v>16.840000000000003</v>
       </c>
       <c r="N1155" s="72">
-        <v>77.252999999999986</v>
+        <v>77.253</v>
       </c>
     </row>
     <row r="1156" spans="1:14" x14ac:dyDescent="0.25">
@@ -58794,13 +58794,13 @@
         <v>11.776</v>
       </c>
       <c r="L1210" s="72">
-        <v>47.452000000000012</v>
+        <v>47.451999999999998</v>
       </c>
       <c r="M1210" s="72">
-        <v>28.665000000000003</v>
+        <v>28.664999999999999</v>
       </c>
       <c r="N1210" s="72">
-        <v>59.228000000000009</v>
+        <v>59.228000000000002</v>
       </c>
     </row>
     <row r="1211" spans="1:14" x14ac:dyDescent="0.25">
@@ -58911,7 +58911,7 @@
         <v>70</v>
       </c>
       <c r="K1213" s="72">
-        <v>50.645999999999994</v>
+        <v>50.646000000000001</v>
       </c>
       <c r="L1213" s="72">
         <v>0</v>
@@ -58920,7 +58920,7 @@
         <v>0</v>
       </c>
       <c r="N1213" s="72">
-        <v>50.645999999999994</v>
+        <v>50.646000000000001</v>
       </c>
     </row>
     <row r="1214" spans="1:14" x14ac:dyDescent="0.25">
@@ -58958,13 +58958,13 @@
         <v>52.961000000000013</v>
       </c>
       <c r="L1214" s="72">
-        <v>43.482999999999976</v>
+        <v>43.483000000000004</v>
       </c>
       <c r="M1214" s="72">
         <v>7.1630000000000003</v>
       </c>
       <c r="N1214" s="72">
-        <v>96.443999999999988</v>
+        <v>96.444000000000017</v>
       </c>
     </row>
     <row r="1215" spans="1:14" x14ac:dyDescent="0.25">
@@ -58999,16 +58999,16 @@
         <v>70</v>
       </c>
       <c r="K1215" s="72">
-        <v>48.405000000000008</v>
+        <v>48.405000000000001</v>
       </c>
       <c r="L1215" s="72">
-        <v>17.567999999999977</v>
+        <v>17.567999999999998</v>
       </c>
       <c r="M1215" s="72">
-        <v>78.876000000000005</v>
+        <v>78.876000000000019</v>
       </c>
       <c r="N1215" s="72">
-        <v>65.972999999999985</v>
+        <v>65.972999999999999</v>
       </c>
     </row>
     <row r="1216" spans="1:14" x14ac:dyDescent="0.25">
@@ -59046,13 +59046,13 @@
         <v>18.433</v>
       </c>
       <c r="L1216" s="72">
-        <v>38.689</v>
+        <v>38.689000000000007</v>
       </c>
       <c r="M1216" s="72">
-        <v>27.284000000000002</v>
+        <v>27.283999999999999</v>
       </c>
       <c r="N1216" s="72">
-        <v>57.122</v>
+        <v>57.122000000000007</v>
       </c>
     </row>
     <row r="1217" spans="1:14" x14ac:dyDescent="0.25">
@@ -60687,7 +60687,7 @@
         <v>70</v>
       </c>
       <c r="K1255" s="72">
-        <v>119.07300000000001</v>
+        <v>119.07299999999999</v>
       </c>
       <c r="L1255" s="72">
         <v>0</v>
@@ -60696,7 +60696,7 @@
         <v>0</v>
       </c>
       <c r="N1255" s="72">
-        <v>119.07300000000001</v>
+        <v>119.07299999999999</v>
       </c>
     </row>
     <row r="1256" spans="1:14" x14ac:dyDescent="0.25">
@@ -60731,16 +60731,16 @@
         <v>70</v>
       </c>
       <c r="K1256" s="72">
-        <v>28.211000000000002</v>
+        <v>28.210999999999999</v>
       </c>
       <c r="L1256" s="72">
-        <v>112.56200000000003</v>
+        <v>112.56199999999997</v>
       </c>
       <c r="M1256" s="72">
         <v>6.5109999999999992</v>
       </c>
       <c r="N1256" s="72">
-        <v>140.77300000000002</v>
+        <v>140.77299999999997</v>
       </c>
     </row>
     <row r="1257" spans="1:14" x14ac:dyDescent="0.25">
@@ -60822,13 +60822,13 @@
         <v>42.259</v>
       </c>
       <c r="L1258" s="72">
-        <v>127.02600000000002</v>
+        <v>127.02599999999997</v>
       </c>
       <c r="M1258" s="72">
         <v>26.238</v>
       </c>
       <c r="N1258" s="72">
-        <v>169.28500000000003</v>
+        <v>169.28499999999997</v>
       </c>
     </row>
     <row r="1259" spans="1:14" x14ac:dyDescent="0.25">
@@ -60863,16 +60863,16 @@
         <v>70</v>
       </c>
       <c r="K1259" s="72">
-        <v>60.151000000000003</v>
+        <v>60.150999999999996</v>
       </c>
       <c r="L1259" s="72">
-        <v>60.418000000000013</v>
+        <v>60.418000000000006</v>
       </c>
       <c r="M1259" s="72">
-        <v>108.867</v>
+        <v>108.86699999999999</v>
       </c>
       <c r="N1259" s="72">
-        <v>120.56900000000002</v>
+        <v>120.569</v>
       </c>
     </row>
     <row r="1260" spans="1:14" x14ac:dyDescent="0.25">
@@ -60910,13 +60910,13 @@
         <v>3.456</v>
       </c>
       <c r="L1260" s="72">
-        <v>34.530999999999999</v>
+        <v>34.530999999999992</v>
       </c>
       <c r="M1260" s="72">
         <v>86.037999999999997</v>
       </c>
       <c r="N1260" s="72">
-        <v>37.987000000000002</v>
+        <v>37.986999999999995</v>
       </c>
     </row>
     <row r="1261" spans="1:14" x14ac:dyDescent="0.25">
@@ -60954,7 +60954,7 @@
         <v>0</v>
       </c>
       <c r="M1261" s="72">
-        <v>37.987000000000002</v>
+        <v>37.986999999999995</v>
       </c>
       <c r="N1261" s="72">
         <v>0</v>
@@ -64918,13 +64918,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="72">
-        <v>258.13925000000006</v>
+        <v>258.13924999999995</v>
       </c>
       <c r="H6" s="72">
         <v>350</v>
       </c>
       <c r="I6" s="76">
-        <v>0.73754071428571444</v>
+        <v>0.73754071428571411</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -64947,13 +64947,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="72">
-        <v>46.930249999999994</v>
+        <v>46.930250000000001</v>
       </c>
       <c r="H7" s="72">
         <v>350</v>
       </c>
       <c r="I7" s="76">
-        <v>0.13408642857142855</v>
+        <v>0.13408642857142858</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -65063,13 +65063,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="72">
-        <v>76.064000000000021</v>
+        <v>76.063999999999993</v>
       </c>
       <c r="H11" s="72">
         <v>350</v>
       </c>
       <c r="I11" s="76">
-        <v>0.21732571428571434</v>
+        <v>0.21732571428571426</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -65179,13 +65179,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="72">
-        <v>103.20674999999999</v>
+        <v>103.20675000000003</v>
       </c>
       <c r="H15" s="72">
         <v>140</v>
       </c>
       <c r="I15" s="76">
-        <v>0.73719107142857132</v>
+        <v>0.73719107142857165</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -65208,13 +65208,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="72">
-        <v>418.61849999999993</v>
+        <v>418.61850000000004</v>
       </c>
       <c r="H16" s="72">
         <v>490</v>
       </c>
       <c r="I16" s="76">
-        <v>0.85432346938775494</v>
+        <v>0.85432346938775516</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -65237,13 +65237,13 @@
         <v>0</v>
       </c>
       <c r="G17" s="72">
-        <v>156.1815000000002</v>
+        <v>156.18149999999994</v>
       </c>
       <c r="H17" s="72">
         <v>490</v>
       </c>
       <c r="I17" s="76">
-        <v>0.31873775510204122</v>
+        <v>0.31873775510204072</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -65266,13 +65266,13 @@
         <v>0</v>
       </c>
       <c r="G18" s="72">
-        <v>40.899999999999984</v>
+        <v>40.9</v>
       </c>
       <c r="H18" s="72">
         <v>140</v>
       </c>
       <c r="I18" s="76">
-        <v>0.29214285714285704</v>
+        <v>0.29214285714285715</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -65295,13 +65295,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="72">
-        <v>50.378000000000021</v>
+        <v>50.378</v>
       </c>
       <c r="H19" s="72">
         <v>140</v>
       </c>
       <c r="I19" s="76">
-        <v>0.3598428571428573</v>
+        <v>0.35984285714285713</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -65440,13 +65440,13 @@
         <v>0</v>
       </c>
       <c r="G24" s="72">
-        <v>64.939750000000018</v>
+        <v>64.939750000000004</v>
       </c>
       <c r="H24" s="72">
         <v>210</v>
       </c>
       <c r="I24" s="76">
-        <v>0.30923690476190485</v>
+        <v>0.3092369047619048</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -65469,13 +65469,13 @@
         <v>0</v>
       </c>
       <c r="G25" s="72">
-        <v>64.908249999999953</v>
+        <v>64.908249999999995</v>
       </c>
       <c r="H25" s="72">
         <v>210</v>
       </c>
       <c r="I25" s="76">
-        <v>0.30908690476190454</v>
+        <v>0.30908690476190476</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -65556,13 +65556,13 @@
         <v>0</v>
       </c>
       <c r="G28" s="72">
-        <v>161.97274999999982</v>
+        <v>161.97275000000005</v>
       </c>
       <c r="H28" s="72">
         <v>210</v>
       </c>
       <c r="I28" s="76">
-        <v>0.77129880952380869</v>
+        <v>0.7712988095238098</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -65585,13 +65585,13 @@
         <v>0</v>
       </c>
       <c r="G29" s="72">
-        <v>126.97675000000001</v>
+        <v>126.97675000000007</v>
       </c>
       <c r="H29" s="72">
         <v>210</v>
       </c>
       <c r="I29" s="76">
-        <v>0.60465119047619054</v>
+        <v>0.60465119047619076</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -65672,13 +65672,13 @@
         <v>0</v>
       </c>
       <c r="G32" s="72">
-        <v>121.27875000000002</v>
+        <v>121.27874999999999</v>
       </c>
       <c r="H32" s="72">
         <v>210</v>
       </c>
       <c r="I32" s="76">
-        <v>0.57751785714285719</v>
+        <v>0.57751785714285708</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -65701,13 +65701,13 @@
         <v>0</v>
       </c>
       <c r="G33" s="72">
-        <v>175.43349999999998</v>
+        <v>175.43349999999995</v>
       </c>
       <c r="H33" s="72">
         <v>210</v>
       </c>
       <c r="I33" s="76">
-        <v>0.835397619047619</v>
+        <v>0.83539761904761878</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -65730,13 +65730,13 @@
         <v>0</v>
       </c>
       <c r="G34" s="72">
-        <v>686.81524999999988</v>
+        <v>686.81524999999965</v>
       </c>
       <c r="H34" s="72">
         <v>770</v>
       </c>
       <c r="I34" s="76">
-        <v>0.89196785714285698</v>
+        <v>0.89196785714285665</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -65759,13 +65759,13 @@
         <v>0</v>
       </c>
       <c r="G35" s="72">
-        <v>283.43174999999997</v>
+        <v>283.43175000000025</v>
       </c>
       <c r="H35" s="72">
         <v>770</v>
       </c>
       <c r="I35" s="76">
-        <v>0.36809318181818179</v>
+        <v>0.36809318181818212</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -65788,13 +65788,13 @@
         <v>0</v>
       </c>
       <c r="G36" s="72">
-        <v>43.74349999999999</v>
+        <v>43.743500000000033</v>
       </c>
       <c r="H36" s="72">
         <v>210</v>
       </c>
       <c r="I36" s="76">
-        <v>0.20830238095238091</v>
+        <v>0.2083023809523811</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -65817,13 +65817,13 @@
         <v>0</v>
       </c>
       <c r="G37" s="72">
-        <v>59.180749999999996</v>
+        <v>59.180750000000003</v>
       </c>
       <c r="H37" s="72">
         <v>210</v>
       </c>
       <c r="I37" s="76">
-        <v>0.28181309523809522</v>
+        <v>0.28181309523809528</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -65962,13 +65962,13 @@
         <v>0</v>
       </c>
       <c r="G42" s="72">
-        <v>90.424250000000043</v>
+        <v>90.424250000000015</v>
       </c>
       <c r="H42" s="72">
         <v>140</v>
       </c>
       <c r="I42" s="76">
-        <v>0.64588750000000028</v>
+        <v>0.64588750000000006</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -65991,13 +65991,13 @@
         <v>0</v>
       </c>
       <c r="G43" s="72">
-        <v>47.024250000000002</v>
+        <v>47.024249999999981</v>
       </c>
       <c r="H43" s="72">
         <v>140</v>
       </c>
       <c r="I43" s="76">
-        <v>0.33588750000000001</v>
+        <v>0.33588749999999984</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -66078,13 +66078,13 @@
         <v>0</v>
       </c>
       <c r="G46" s="72">
-        <v>136.14174999999994</v>
+        <v>136.14174999999997</v>
       </c>
       <c r="H46" s="72">
         <v>140</v>
       </c>
       <c r="I46" s="76">
-        <v>0.97244107142857106</v>
+        <v>0.97244107142857128</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -66107,13 +66107,13 @@
         <v>0</v>
       </c>
       <c r="G47" s="72">
-        <v>108.9770000000001</v>
+        <v>108.977</v>
       </c>
       <c r="H47" s="72">
         <v>140</v>
       </c>
       <c r="I47" s="76">
-        <v>0.77840714285714363</v>
+        <v>0.77840714285714285</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -66194,7 +66194,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="72">
-        <v>124.49674999999998</v>
+        <v>124.49674999999999</v>
       </c>
       <c r="H50" s="72">
         <v>210</v>
@@ -66223,13 +66223,13 @@
         <v>0</v>
       </c>
       <c r="G51" s="72">
-        <v>188.66499999999991</v>
+        <v>188.66500000000005</v>
       </c>
       <c r="H51" s="72">
         <v>210</v>
       </c>
       <c r="I51" s="76">
-        <v>0.89840476190476148</v>
+        <v>0.89840476190476215</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -66281,13 +66281,13 @@
         <v>0</v>
       </c>
       <c r="G53" s="72">
-        <v>525.06874999999923</v>
+        <v>525.06874999999945</v>
       </c>
       <c r="H53" s="72">
         <v>700</v>
       </c>
       <c r="I53" s="76">
-        <v>0.75009821428571322</v>
+        <v>0.75009821428571355</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -66310,13 +66310,13 @@
         <v>0</v>
       </c>
       <c r="G54" s="72">
-        <v>43.967250000000007</v>
+        <v>43.967249999999993</v>
       </c>
       <c r="H54" s="72">
         <v>210</v>
       </c>
       <c r="I54" s="76">
-        <v>0.20936785714285719</v>
+        <v>0.20936785714285711</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -66339,13 +66339,13 @@
         <v>0</v>
       </c>
       <c r="G55" s="72">
-        <v>63.393750000000018</v>
+        <v>63.39375000000004</v>
       </c>
       <c r="H55" s="72">
         <v>210</v>
       </c>
       <c r="I55" s="76">
-        <v>0.30187500000000012</v>
+        <v>0.30187500000000017</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -66484,13 +66484,13 @@
         <v>0</v>
       </c>
       <c r="G60" s="72">
-        <v>91.344500000000039</v>
+        <v>91.344500000000082</v>
       </c>
       <c r="H60" s="72">
         <v>210</v>
       </c>
       <c r="I60" s="76">
-        <v>0.43497380952380971</v>
+        <v>0.43497380952380993</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -66513,13 +66513,13 @@
         <v>0</v>
       </c>
       <c r="G61" s="72">
-        <v>82.430749999999961</v>
+        <v>82.430750000000018</v>
       </c>
       <c r="H61" s="72">
         <v>210</v>
       </c>
       <c r="I61" s="76">
-        <v>0.39252738095238077</v>
+        <v>0.39252738095238104</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -66542,13 +66542,13 @@
         <v>0</v>
       </c>
       <c r="G62" s="72">
-        <v>53.134249999999973</v>
+        <v>53.134250000000016</v>
       </c>
       <c r="H62" s="72">
         <v>140</v>
       </c>
       <c r="I62" s="76">
-        <v>0.37953035714285693</v>
+        <v>0.37953035714285727</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -66571,13 +66571,13 @@
         <v>0</v>
       </c>
       <c r="G63" s="72">
-        <v>41.330749999999995</v>
+        <v>41.330750000000009</v>
       </c>
       <c r="H63" s="72">
         <v>140</v>
       </c>
       <c r="I63" s="76">
-        <v>0.29521964285714281</v>
+        <v>0.29521964285714292</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -66629,13 +66629,13 @@
         <v>0</v>
       </c>
       <c r="G65" s="72">
-        <v>137.38024999999993</v>
+        <v>137.3802499999999</v>
       </c>
       <c r="H65" s="72">
         <v>210</v>
       </c>
       <c r="I65" s="76">
-        <v>0.65419166666666639</v>
+        <v>0.65419166666666617</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -66716,13 +66716,13 @@
         <v>0</v>
       </c>
       <c r="G68" s="72">
-        <v>128.22175000000007</v>
+        <v>128.22175000000004</v>
       </c>
       <c r="H68" s="72">
         <v>210</v>
       </c>
       <c r="I68" s="76">
-        <v>0.61057976190476226</v>
+        <v>0.61057976190476215</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -66745,13 +66745,13 @@
         <v>0</v>
       </c>
       <c r="G69" s="72">
-        <v>166.96599999999998</v>
+        <v>166.96600000000007</v>
       </c>
       <c r="H69" s="72">
         <v>210</v>
       </c>
       <c r="I69" s="76">
-        <v>0.79507619047619038</v>
+        <v>0.79507619047619082</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -66832,13 +66832,13 @@
         <v>0</v>
       </c>
       <c r="G72" s="72">
-        <v>45.395250000000011</v>
+        <v>45.395249999999997</v>
       </c>
       <c r="H72" s="72">
         <v>210</v>
       </c>
       <c r="I72" s="76">
-        <v>0.21616785714285719</v>
+        <v>0.21616785714285713</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -66861,13 +66861,13 @@
         <v>0</v>
       </c>
       <c r="G73" s="72">
-        <v>56.678000000000004</v>
+        <v>56.677999999999997</v>
       </c>
       <c r="H73" s="72">
         <v>210</v>
       </c>
       <c r="I73" s="76">
-        <v>0.26989523809523813</v>
+        <v>0.26989523809523808</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -67035,13 +67035,13 @@
         <v>0</v>
       </c>
       <c r="G79" s="72">
-        <v>47.676249999999989</v>
+        <v>47.67625000000001</v>
       </c>
       <c r="H79" s="72">
         <v>280</v>
       </c>
       <c r="I79" s="76">
-        <v>0.17027232142857138</v>
+        <v>0.17027232142857146</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -67064,13 +67064,13 @@
         <v>0</v>
       </c>
       <c r="G80" s="72">
-        <v>107.96124999999998</v>
+        <v>107.96125000000004</v>
       </c>
       <c r="H80" s="72">
         <v>280</v>
       </c>
       <c r="I80" s="76">
-        <v>0.38557589285714278</v>
+        <v>0.385575892857143</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -67093,13 +67093,13 @@
         <v>0</v>
       </c>
       <c r="G81" s="72">
-        <v>57.689749999999968</v>
+        <v>57.689750000000004</v>
       </c>
       <c r="H81" s="72">
         <v>280</v>
       </c>
       <c r="I81" s="76">
-        <v>0.20603482142857132</v>
+        <v>0.20603482142857144</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -67151,13 +67151,13 @@
         <v>0</v>
       </c>
       <c r="G83" s="72">
-        <v>86.186750000000032</v>
+        <v>86.186750000000004</v>
       </c>
       <c r="H83" s="72">
         <v>280</v>
       </c>
       <c r="I83" s="76">
-        <v>0.30780982142857155</v>
+        <v>0.30780982142857144</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -67180,13 +67180,13 @@
         <v>0</v>
       </c>
       <c r="G84" s="72">
-        <v>168.25124999999991</v>
+        <v>168.25125</v>
       </c>
       <c r="H84" s="72">
         <v>280</v>
       </c>
       <c r="I84" s="76">
-        <v>0.60089732142857111</v>
+        <v>0.60089732142857144</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -67209,13 +67209,13 @@
         <v>0</v>
       </c>
       <c r="G85" s="72">
-        <v>40.552</v>
+        <v>40.552000000000028</v>
       </c>
       <c r="H85" s="72">
         <v>280</v>
       </c>
       <c r="I85" s="76">
-        <v>0.14482857142857142</v>
+        <v>0.14482857142857153</v>
       </c>
     </row>
   </sheetData>
